--- a/Scholarships Research.xlsx
+++ b/Scholarships Research.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\30064037\OneDrive - Western Sydney University\Documents - Scholarships Operations Group\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://westernsydneyedu.sharepoint.com/sites/ScholarshipsOperationsGroup/Shared Documents/Git/Scholarships/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{891E6A58-1632-490F-A8B6-5FDA491183CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{891E6A58-1632-490F-A8B6-5FDA491183CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B1C5751D-AA5E-410A-9380-36C08CD9C92B}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1CF3EDB6-384E-4233-A2F8-DD99A8F9DE7B}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1CF3EDB6-384E-4233-A2F8-DD99A8F9DE7B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1007,7 +1007,7 @@
       <sheetData sheetId="0">
         <row r="2">
           <cell r="F2" t="str">
-            <v>['EligibilityTo be eligible, applicants must be commencing a Nuclear Engineering specialisation in the Master of Engineering Science MEngSci (8338) Program. Code: ENGGPS']</v>
+            <v>['2nd or 3rd Year in the School of Mechanical and Manufacturing Engineering in the following areas:', 'Mechanical and Manufacturing EngineeringMechanical EngineeringRobotics and Mechatronics Engineering', 'Mechanical EngineeringRobotics and Mechatronics Engineering', 'Robotics and Mechatronics Engineering', '2nd or 3rd Year in the School of Electrical Engineering and Telecommunications in the following areas:Electrical EngineeringTelecommunications', 'Electrical EngineeringTelecommunications', 'Telecommunications', '2nd or 3rd in the Year School of Computer Science and Engineering in the following areas:Computer ScienceSoftware Engineering', 'Computer ScienceSoftware Engineering', 'Software Engineering', '3rd Year in Industrial Design']</v>
           </cell>
         </row>
       </sheetData>
@@ -1315,7 +1315,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5773BD61-A8F4-4ACA-BB03-11DEBD312DAE}">
   <dimension ref="A1:I176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -1825,7 +1825,7 @@
       </c>
       <c r="B20" s="10" t="str">
         <f>[1]Sheet1!$F$2</f>
-        <v>['EligibilityTo be eligible, applicants must be commencing a Nuclear Engineering specialisation in the Master of Engineering Science MEngSci (8338) Program. Code: ENGGPS']</v>
+        <v>['2nd or 3rd Year in the School of Mechanical and Manufacturing Engineering in the following areas:', 'Mechanical and Manufacturing EngineeringMechanical EngineeringRobotics and Mechatronics Engineering', 'Mechanical EngineeringRobotics and Mechatronics Engineering', 'Robotics and Mechatronics Engineering', '2nd or 3rd Year in the School of Electrical Engineering and Telecommunications in the following areas:Electrical EngineeringTelecommunications', 'Electrical EngineeringTelecommunications', 'Telecommunications', '2nd or 3rd in the Year School of Computer Science and Engineering in the following areas:Computer ScienceSoftware Engineering', 'Computer ScienceSoftware Engineering', 'Software Engineering', '3rd Year in Industrial Design']</v>
       </c>
       <c r="C20" s="9" t="s">
         <v>28</v>
@@ -6136,26 +6136,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="91d47d42-378c-4240-adf1-50612b639f36" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="514dc54e-a510-4ebc-96a4-7a373c84d576">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A1B59F058DD61F4CBF5D961017DC0A45" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3843482ad259dd7cf47d53181de3a479">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="514dc54e-a510-4ebc-96a4-7a373c84d576" xmlns:ns3="91d47d42-378c-4240-adf1-50612b639f36" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c2a99e4d2b0f67119e90f9a433f5d6db" ns2:_="" ns3:_="">
     <xsd:import namespace="514dc54e-a510-4ebc-96a4-7a373c84d576"/>
@@ -6404,26 +6384,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{931EF037-3A45-438F-8EFF-A0227E591D57}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="91d47d42-378c-4240-adf1-50612b639f36"/>
-    <ds:schemaRef ds:uri="514dc54e-a510-4ebc-96a4-7a373c84d576"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2939E453-00EA-486F-995B-7D4644B61C8A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="91d47d42-378c-4240-adf1-50612b639f36" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="514dc54e-a510-4ebc-96a4-7a373c84d576">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{873E4114-4F26-4870-B334-33A2DDABEBD5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6440,4 +6421,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2939E453-00EA-486F-995B-7D4644B61C8A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{931EF037-3A45-438F-8EFF-A0227E591D57}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="91d47d42-378c-4240-adf1-50612b639f36"/>
+    <ds:schemaRef ds:uri="514dc54e-a510-4ebc-96a4-7a373c84d576"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Scholarships Research.xlsx
+++ b/Scholarships Research.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://westernsydneyedu.sharepoint.com/sites/ScholarshipsOperationsGroup/Shared Documents/Git/Scholarships/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{891E6A58-1632-490F-A8B6-5FDA491183CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B1C5751D-AA5E-410A-9380-36C08CD9C92B}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{891E6A58-1632-490F-A8B6-5FDA491183CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{59F1490C-7DC7-475D-BDB1-6E1422CDF732}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1CF3EDB6-384E-4233-A2F8-DD99A8F9DE7B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1CF3EDB6-384E-4233-A2F8-DD99A8F9DE7B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <externalReference r:id="rId2"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$176</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$G$1:$G$176</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1315,8 +1315,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5773BD61-A8F4-4ACA-BB03-11DEBD312DAE}">
   <dimension ref="A1:I176"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="A164" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6129,13 +6129,33 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H176" xr:uid="{5773BD61-A8F4-4ACA-BB03-11DEBD312DAE}"/>
+  <autoFilter ref="G1:G176" xr:uid="{5773BD61-A8F4-4ACA-BB03-11DEBD312DAE}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="91d47d42-378c-4240-adf1-50612b639f36" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="514dc54e-a510-4ebc-96a4-7a373c84d576">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A1B59F058DD61F4CBF5D961017DC0A45" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3843482ad259dd7cf47d53181de3a479">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="514dc54e-a510-4ebc-96a4-7a373c84d576" xmlns:ns3="91d47d42-378c-4240-adf1-50612b639f36" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c2a99e4d2b0f67119e90f9a433f5d6db" ns2:_="" ns3:_="">
     <xsd:import namespace="514dc54e-a510-4ebc-96a4-7a373c84d576"/>
@@ -6384,27 +6404,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{931EF037-3A45-438F-8EFF-A0227E591D57}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="91d47d42-378c-4240-adf1-50612b639f36"/>
+    <ds:schemaRef ds:uri="514dc54e-a510-4ebc-96a4-7a373c84d576"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="91d47d42-378c-4240-adf1-50612b639f36" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="514dc54e-a510-4ebc-96a4-7a373c84d576">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2939E453-00EA-486F-995B-7D4644B61C8A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{873E4114-4F26-4870-B334-33A2DDABEBD5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6421,23 +6440,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2939E453-00EA-486F-995B-7D4644B61C8A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{931EF037-3A45-438F-8EFF-A0227E591D57}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="91d47d42-378c-4240-adf1-50612b639f36"/>
-    <ds:schemaRef ds:uri="514dc54e-a510-4ebc-96a4-7a373c84d576"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Scholarships Research.xlsx
+++ b/Scholarships Research.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://westernsydneyedu.sharepoint.com/sites/ScholarshipsOperationsGroup/Shared Documents/Git/Scholarships/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="562" documentId="13_ncr:1_{891E6A58-1632-490F-A8B6-5FDA491183CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{820284DF-B36F-4985-9E96-765AB051E2BD}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{BC4AE9FA-0CB4-4CF0-8D39-57A9F105CFA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{712ABEEC-36FC-47A3-BE68-20EE75D1D2EC}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1CF3EDB6-384E-4233-A2F8-DD99A8F9DE7B}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4042" uniqueCount="673">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4044" uniqueCount="679">
   <si>
     <t>University</t>
   </si>
@@ -1494,15 +1494,6 @@
   </si>
   <si>
     <t>4 years</t>
-  </si>
-  <si>
-    <t>•  
-• o
-• u
-• f
-• n
-• d
-• t</t>
   </si>
   <si>
     <t>$5,000
@@ -3274,6 +3265,34 @@
     <t>• Female
 • Born after Jan 1st 1988
 • UAC Equity Criteria</t>
+  </si>
+  <si>
+    <t>•  Disability
+• Financial hardship
+• Written statement</t>
+  </si>
+  <si>
+    <t>•  Written statement - community work and leadership
+• Residents from selected areas
+• Academic merit</t>
+  </si>
+  <si>
+    <t>•  High School Leavers - early admission
+• Academic merit
+• Written statement</t>
+  </si>
+  <si>
+    <t>• Residents from selected areas
+• Academic merit</t>
+  </si>
+  <si>
+    <t>•  Equity Criteria</t>
+  </si>
+  <si>
+    <t>•  Selected UG programs and Master of Teaching</t>
+  </si>
+  <si>
+    <t>•  Community contribution</t>
   </si>
 </sst>
 </file>
@@ -3781,11 +3800,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5773BD61-A8F4-4ACA-BB03-11DEBD312DAE}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:I531"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A340" workbookViewId="0">
-      <selection activeCell="D545" sqref="D545"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B336" sqref="B336"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3830,7 +3848,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="60.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="60.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -3851,7 +3869,7 @@
         <v>35</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="H2" t="s">
         <v>25</v>
@@ -3860,7 +3878,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="75.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -3881,7 +3899,7 @@
         <v>35</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="H3" t="s">
         <v>25</v>
@@ -3890,7 +3908,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="90.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -3911,7 +3929,7 @@
         <v>35</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H4" t="s">
         <v>25</v>
@@ -3920,7 +3938,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="45.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
@@ -3941,7 +3959,7 @@
         <v>35</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="H5" t="s">
         <v>25</v>
@@ -3950,7 +3968,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="75.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
@@ -3971,7 +3989,7 @@
         <v>13</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="H6" t="s">
         <v>25</v>
@@ -3980,7 +3998,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -4000,7 +4018,9 @@
       <c r="F7" t="s">
         <v>35</v>
       </c>
-      <c r="G7" s="12"/>
+      <c r="G7" s="12" t="s">
+        <v>672</v>
+      </c>
       <c r="H7" t="s">
         <v>25</v>
       </c>
@@ -4008,7 +4028,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
@@ -4029,7 +4049,7 @@
         <v>13</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="H8" t="s">
         <v>25</v>
@@ -4038,7 +4058,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="30.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>6</v>
       </c>
@@ -4059,7 +4079,7 @@
         <v>13</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="H9" t="s">
         <v>25</v>
@@ -4068,7 +4088,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="105.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>6</v>
       </c>
@@ -4083,14 +4103,14 @@
         <v>202</v>
       </c>
       <c r="E10" t="s">
+        <v>538</v>
+      </c>
+      <c r="F10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="12" t="s">
         <v>539</v>
       </c>
-      <c r="F10" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" s="12" t="s">
-        <v>540</v>
-      </c>
       <c r="H10" t="s">
         <v>25</v>
       </c>
@@ -4098,7 +4118,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="60.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>6</v>
       </c>
@@ -4119,7 +4139,7 @@
         <v>35</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H11" t="s">
         <v>25</v>
@@ -4128,7 +4148,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="90.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>6</v>
       </c>
@@ -4158,7 +4178,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="30.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>6</v>
       </c>
@@ -4188,7 +4208,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="30.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>6</v>
       </c>
@@ -4209,7 +4229,7 @@
         <v>35</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H14" t="s">
         <v>25</v>
@@ -4218,7 +4238,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="30.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>6</v>
       </c>
@@ -4239,7 +4259,7 @@
         <v>35</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H15" t="s">
         <v>25</v>
@@ -4248,7 +4268,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="75.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>6</v>
       </c>
@@ -4269,7 +4289,7 @@
         <v>13</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H16" t="s">
         <v>25</v>
@@ -4278,7 +4298,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="30.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>6</v>
       </c>
@@ -4299,7 +4319,7 @@
         <v>35</v>
       </c>
       <c r="G17" s="12" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="H17" t="s">
         <v>25</v>
@@ -4308,7 +4328,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="30.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>6</v>
       </c>
@@ -4329,7 +4349,7 @@
         <v>35</v>
       </c>
       <c r="G18" s="12" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="H18" t="s">
         <v>25</v>
@@ -4338,7 +4358,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="30.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>6</v>
       </c>
@@ -4359,7 +4379,7 @@
         <v>197</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H19" t="s">
         <v>25</v>
@@ -4368,7 +4388,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="60.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>6</v>
       </c>
@@ -4389,7 +4409,7 @@
         <v>13</v>
       </c>
       <c r="G20" s="12" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H20" t="s">
         <v>25</v>
@@ -4398,7 +4418,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>6</v>
       </c>
@@ -4419,7 +4439,7 @@
         <v>13</v>
       </c>
       <c r="G21" s="12" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="H21" t="s">
         <v>21</v>
@@ -4428,7 +4448,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>6</v>
       </c>
@@ -4449,7 +4469,7 @@
         <v>13</v>
       </c>
       <c r="G22" s="12" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="H22" t="s">
         <v>25</v>
@@ -4458,7 +4478,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>6</v>
       </c>
@@ -4518,7 +4538,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>6</v>
       </c>
@@ -4539,7 +4559,7 @@
         <v>13</v>
       </c>
       <c r="G25" s="12" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="H25" t="s">
         <v>25</v>
@@ -4548,7 +4568,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>6</v>
       </c>
@@ -4569,7 +4589,7 @@
         <v>13</v>
       </c>
       <c r="G26" s="12" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H26" t="s">
         <v>25</v>
@@ -4578,7 +4598,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>6</v>
       </c>
@@ -4599,7 +4619,7 @@
         <v>13</v>
       </c>
       <c r="G27" s="12" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H27" t="s">
         <v>25</v>
@@ -4608,7 +4628,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>6</v>
       </c>
@@ -4629,7 +4649,7 @@
         <v>13</v>
       </c>
       <c r="G28" s="12" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="H28" t="s">
         <v>21</v>
@@ -4638,7 +4658,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>6</v>
       </c>
@@ -4659,7 +4679,7 @@
         <v>197</v>
       </c>
       <c r="G29" s="12" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="H29" t="s">
         <v>25</v>
@@ -4668,7 +4688,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>6</v>
       </c>
@@ -4689,7 +4709,7 @@
         <v>13</v>
       </c>
       <c r="G30" s="12" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="H30" t="s">
         <v>25</v>
@@ -4698,7 +4718,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>6</v>
       </c>
@@ -4719,7 +4739,7 @@
         <v>13</v>
       </c>
       <c r="G31" s="12" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="H31" t="s">
         <v>25</v>
@@ -4728,7 +4748,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>6</v>
       </c>
@@ -4749,7 +4769,7 @@
         <v>35</v>
       </c>
       <c r="G32" s="12" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H32" t="s">
         <v>25</v>
@@ -4758,7 +4778,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>6</v>
       </c>
@@ -4779,7 +4799,7 @@
         <v>197</v>
       </c>
       <c r="G33" s="12" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="H33" t="s">
         <v>25</v>
@@ -4788,7 +4808,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>6</v>
       </c>
@@ -4818,7 +4838,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>6</v>
       </c>
@@ -4839,7 +4859,7 @@
         <v>13</v>
       </c>
       <c r="G35" s="12" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="H35" t="s">
         <v>25</v>
@@ -4848,7 +4868,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>6</v>
       </c>
@@ -4878,7 +4898,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>6</v>
       </c>
@@ -4899,7 +4919,7 @@
         <v>51</v>
       </c>
       <c r="G37" s="12" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="H37" t="s">
         <v>25</v>
@@ -4908,7 +4928,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>6</v>
       </c>
@@ -4929,7 +4949,7 @@
         <v>35</v>
       </c>
       <c r="G38" s="12" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="H38" t="s">
         <v>25</v>
@@ -4938,7 +4958,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>6</v>
       </c>
@@ -4959,7 +4979,7 @@
         <v>13</v>
       </c>
       <c r="G39" s="12" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="H39" t="s">
         <v>21</v>
@@ -4989,7 +5009,7 @@
         <v>13</v>
       </c>
       <c r="G40" s="12" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="H40" t="s">
         <v>25</v>
@@ -4998,7 +5018,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>6</v>
       </c>
@@ -5019,7 +5039,7 @@
         <v>13</v>
       </c>
       <c r="G41" s="12" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="H41" t="s">
         <v>25</v>
@@ -5028,7 +5048,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>6</v>
       </c>
@@ -5049,7 +5069,7 @@
         <v>13</v>
       </c>
       <c r="G42" s="12" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="H42" t="s">
         <v>25</v>
@@ -5088,7 +5108,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="270" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" ht="270" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>6</v>
       </c>
@@ -5109,7 +5129,7 @@
         <v>51</v>
       </c>
       <c r="G44" s="12" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="H44" t="s">
         <v>25</v>
@@ -5139,7 +5159,7 @@
         <v>13</v>
       </c>
       <c r="G45" s="12" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="H45" t="s">
         <v>25</v>
@@ -5148,7 +5168,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="285" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" ht="285" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>6</v>
       </c>
@@ -5169,7 +5189,7 @@
         <v>13</v>
       </c>
       <c r="G46" s="12" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="H46" t="s">
         <v>25</v>
@@ -5178,7 +5198,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>6</v>
       </c>
@@ -5199,7 +5219,7 @@
         <v>13</v>
       </c>
       <c r="G47" s="12" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="H47" t="s">
         <v>25</v>
@@ -5208,7 +5228,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>6</v>
       </c>
@@ -5229,7 +5249,7 @@
         <v>13</v>
       </c>
       <c r="G48" s="12" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H48" t="s">
         <v>25</v>
@@ -5259,7 +5279,7 @@
         <v>35</v>
       </c>
       <c r="G49" s="12" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H49" t="s">
         <v>25</v>
@@ -5298,7 +5318,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>6</v>
       </c>
@@ -5358,7 +5378,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" ht="165" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>6</v>
       </c>
@@ -5388,7 +5408,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="285" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" ht="285" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>6</v>
       </c>
@@ -5418,7 +5438,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="195" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" ht="195" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>6</v>
       </c>
@@ -5538,7 +5558,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>6</v>
       </c>
@@ -5568,7 +5588,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" ht="165" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>6</v>
       </c>
@@ -5598,7 +5618,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="345" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" ht="345" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>6</v>
       </c>
@@ -5628,7 +5648,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>6</v>
       </c>
@@ -5658,7 +5678,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="375" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" ht="375" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>6</v>
       </c>
@@ -5688,7 +5708,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="210" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" ht="210" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>6</v>
       </c>
@@ -5718,7 +5738,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="315" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" ht="315" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>6</v>
       </c>
@@ -5748,7 +5768,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>6</v>
       </c>
@@ -5778,7 +5798,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>6</v>
       </c>
@@ -5808,7 +5828,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>6</v>
       </c>
@@ -5838,7 +5858,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="69" spans="1:9" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>6</v>
       </c>
@@ -5859,7 +5879,7 @@
         <v>35</v>
       </c>
       <c r="G69" s="12" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H69" t="s">
         <v>25</v>
@@ -5868,7 +5888,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="70" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>6</v>
       </c>
@@ -5889,7 +5909,7 @@
         <v>13</v>
       </c>
       <c r="G70" s="12" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="H70" t="s">
         <v>25</v>
@@ -5898,7 +5918,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="71" spans="1:9" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>6</v>
       </c>
@@ -5919,7 +5939,7 @@
         <v>35</v>
       </c>
       <c r="G71" s="12" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="H71" t="s">
         <v>25</v>
@@ -5928,7 +5948,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="72" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>6</v>
       </c>
@@ -5949,7 +5969,7 @@
         <v>13</v>
       </c>
       <c r="G72" s="12" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H72" t="s">
         <v>25</v>
@@ -5958,7 +5978,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="180" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" ht="180" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>6</v>
       </c>
@@ -5979,7 +5999,7 @@
         <v>13</v>
       </c>
       <c r="G73" s="12" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="H73" t="s">
         <v>25</v>
@@ -5988,7 +6008,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="74" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>6</v>
       </c>
@@ -6009,7 +6029,7 @@
         <v>197</v>
       </c>
       <c r="G74" s="12" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="H74" t="s">
         <v>25</v>
@@ -6018,7 +6038,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="75" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>6</v>
       </c>
@@ -6039,7 +6059,7 @@
         <v>35</v>
       </c>
       <c r="G75" s="12" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="H75" t="s">
         <v>25</v>
@@ -6048,7 +6068,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>6</v>
       </c>
@@ -6069,7 +6089,7 @@
         <v>35</v>
       </c>
       <c r="G76" s="12" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="H76" t="s">
         <v>25</v>
@@ -6078,7 +6098,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="77" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>6</v>
       </c>
@@ -6099,7 +6119,7 @@
         <v>13</v>
       </c>
       <c r="G77" s="12" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="H77" t="s">
         <v>25</v>
@@ -6108,7 +6128,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>6</v>
       </c>
@@ -6129,7 +6149,7 @@
         <v>13</v>
       </c>
       <c r="G78" s="12" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="H78" t="s">
         <v>25</v>
@@ -6138,7 +6158,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="79" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>6</v>
       </c>
@@ -6159,7 +6179,7 @@
         <v>197</v>
       </c>
       <c r="G79" s="12" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="H79" t="s">
         <v>21</v>
@@ -6168,7 +6188,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>6</v>
       </c>
@@ -6189,7 +6209,7 @@
         <v>13</v>
       </c>
       <c r="G80" s="12" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="H80" t="s">
         <v>25</v>
@@ -6198,7 +6218,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="81" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>6</v>
       </c>
@@ -6216,10 +6236,10 @@
         <v>201</v>
       </c>
       <c r="F81" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="G81" s="12" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="H81" t="s">
         <v>25</v>
@@ -6228,7 +6248,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="82" spans="1:9" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>6</v>
       </c>
@@ -6249,7 +6269,7 @@
         <v>35</v>
       </c>
       <c r="G82" s="12" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="H82" t="s">
         <v>25</v>
@@ -6258,7 +6278,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="83" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>6</v>
       </c>
@@ -6279,7 +6299,7 @@
         <v>35</v>
       </c>
       <c r="G83" s="12" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="H83" t="s">
         <v>25</v>
@@ -6288,7 +6308,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="84" spans="1:9" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" ht="165" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>6</v>
       </c>
@@ -6318,7 +6338,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="85" spans="1:9" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>6</v>
       </c>
@@ -6348,7 +6368,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="86" spans="1:9" ht="255" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" ht="255" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>6</v>
       </c>
@@ -6408,7 +6428,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="88" spans="1:9" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>6</v>
       </c>
@@ -6450,7 +6470,7 @@
         <v>27</v>
       </c>
       <c r="D89" s="7" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="E89" t="s">
         <v>331</v>
@@ -6459,7 +6479,7 @@
         <v>13</v>
       </c>
       <c r="G89" s="12" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="H89" t="s">
         <v>21</v>
@@ -6468,7 +6488,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="90" spans="1:9" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>6</v>
       </c>
@@ -6498,7 +6518,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="91" spans="1:9" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>6</v>
       </c>
@@ -6528,7 +6548,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="92" spans="1:9" ht="315" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" ht="315" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>6</v>
       </c>
@@ -6558,7 +6578,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="93" spans="1:9" ht="345" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" ht="345" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>6</v>
       </c>
@@ -6648,7 +6668,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="96" spans="1:9" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>6</v>
       </c>
@@ -6678,7 +6698,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="97" spans="1:9" ht="345" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" ht="345" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>6</v>
       </c>
@@ -6708,7 +6728,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="98" spans="1:9" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>6</v>
       </c>
@@ -6738,7 +6758,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="195" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" ht="195" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>6</v>
       </c>
@@ -6798,7 +6818,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="101" spans="1:9" ht="360" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" ht="360" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>6</v>
       </c>
@@ -6828,7 +6848,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="102" spans="1:9" ht="195" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" ht="195" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>6</v>
       </c>
@@ -6858,7 +6878,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="103" spans="1:9" ht="255" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" ht="255" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>6</v>
       </c>
@@ -6918,7 +6938,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="210" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" ht="210" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>6</v>
       </c>
@@ -6978,7 +6998,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="107" spans="1:9" ht="285" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" ht="285" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>6</v>
       </c>
@@ -7008,7 +7028,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="108" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>6</v>
       </c>
@@ -7029,7 +7049,7 @@
         <v>35</v>
       </c>
       <c r="G108" s="12" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="H108" t="s">
         <v>25</v>
@@ -7059,7 +7079,7 @@
         <v>35</v>
       </c>
       <c r="G109" s="12" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="H109" t="s">
         <v>25</v>
@@ -7068,7 +7088,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="110" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>6</v>
       </c>
@@ -7089,7 +7109,7 @@
         <v>35</v>
       </c>
       <c r="G110" s="12" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="H110" t="s">
         <v>25</v>
@@ -7098,7 +7118,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="111" spans="1:9" ht="270" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" ht="270" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>6</v>
       </c>
@@ -7128,7 +7148,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="112" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
         <v>6</v>
       </c>
@@ -7149,7 +7169,7 @@
         <v>35</v>
       </c>
       <c r="G112" s="12" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="H112" t="s">
         <v>25</v>
@@ -7158,7 +7178,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="113" spans="1:9" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
         <v>6</v>
       </c>
@@ -7209,7 +7229,7 @@
         <v>13</v>
       </c>
       <c r="G114" s="12" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="H114" t="s">
         <v>25</v>
@@ -7218,7 +7238,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="115" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
         <v>6</v>
       </c>
@@ -7239,7 +7259,7 @@
         <v>137</v>
       </c>
       <c r="G115" s="12" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="H115" t="s">
         <v>25</v>
@@ -7248,7 +7268,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="116" spans="1:9" ht="255" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" ht="255" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
         <v>6</v>
       </c>
@@ -7338,7 +7358,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="119" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
         <v>6</v>
       </c>
@@ -7359,7 +7379,7 @@
         <v>13</v>
       </c>
       <c r="G119" s="12" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="H119" t="s">
         <v>25</v>
@@ -7389,7 +7409,7 @@
         <v>13</v>
       </c>
       <c r="G120" s="12" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="H120" t="s">
         <v>25</v>
@@ -7398,7 +7418,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="121" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
         <v>6</v>
       </c>
@@ -7419,7 +7439,7 @@
         <v>13</v>
       </c>
       <c r="G121" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="H121" t="s">
         <v>25</v>
@@ -7428,7 +7448,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="122" spans="1:9" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
         <v>6</v>
       </c>
@@ -7449,7 +7469,7 @@
         <v>13</v>
       </c>
       <c r="G122" s="12" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="H122" t="s">
         <v>25</v>
@@ -7458,7 +7478,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="123" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
         <v>6</v>
       </c>
@@ -7479,7 +7499,7 @@
         <v>13</v>
       </c>
       <c r="G123" s="12" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="H123" t="s">
         <v>25</v>
@@ -7488,7 +7508,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="124" spans="1:9" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
         <v>6</v>
       </c>
@@ -7509,7 +7529,7 @@
         <v>13</v>
       </c>
       <c r="G124" s="12" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="H124" t="s">
         <v>25</v>
@@ -7518,7 +7538,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="125" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
         <v>6</v>
       </c>
@@ -7539,7 +7559,7 @@
         <v>13</v>
       </c>
       <c r="G125" s="12" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="H125" t="s">
         <v>25</v>
@@ -7548,7 +7568,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="126" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
         <v>6</v>
       </c>
@@ -7569,7 +7589,7 @@
         <v>13</v>
       </c>
       <c r="G126" s="12" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="H126" t="s">
         <v>25</v>
@@ -7578,7 +7598,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="127" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
         <v>6</v>
       </c>
@@ -7599,7 +7619,7 @@
         <v>13</v>
       </c>
       <c r="G127" s="12" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="H127" t="s">
         <v>25</v>
@@ -7608,7 +7628,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="128" spans="1:9" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
         <v>6</v>
       </c>
@@ -7629,7 +7649,7 @@
         <v>13</v>
       </c>
       <c r="G128" s="12" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="H128" t="s">
         <v>25</v>
@@ -7638,7 +7658,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="129" spans="1:9" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9" ht="165" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
         <v>6</v>
       </c>
@@ -7659,7 +7679,7 @@
         <v>13</v>
       </c>
       <c r="G129" s="12" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="H129" t="s">
         <v>25</v>
@@ -7668,7 +7688,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="130" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
         <v>6</v>
       </c>
@@ -7689,7 +7709,7 @@
         <v>13</v>
       </c>
       <c r="G130" s="12" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H130" t="s">
         <v>25</v>
@@ -7698,7 +7718,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="131" spans="1:9" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
         <v>6</v>
       </c>
@@ -7719,7 +7739,7 @@
         <v>13</v>
       </c>
       <c r="G131" s="12" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="H131" t="s">
         <v>25</v>
@@ -7749,7 +7769,7 @@
         <v>13</v>
       </c>
       <c r="G132" s="12" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="H132" t="s">
         <v>25</v>
@@ -7758,7 +7778,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="133" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
         <v>6</v>
       </c>
@@ -7779,7 +7799,7 @@
         <v>13</v>
       </c>
       <c r="G133" s="12" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="H133" t="s">
         <v>25</v>
@@ -7809,7 +7829,7 @@
         <v>13</v>
       </c>
       <c r="G134" s="12" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="H134" t="s">
         <v>25</v>
@@ -7818,7 +7838,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="135" spans="1:9" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
         <v>6</v>
       </c>
@@ -7839,7 +7859,7 @@
         <v>13</v>
       </c>
       <c r="G135" s="12" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="H135" t="s">
         <v>25</v>
@@ -7869,7 +7889,7 @@
         <v>197</v>
       </c>
       <c r="G136" s="12" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="H136" t="s">
         <v>25</v>
@@ -7878,7 +7898,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="137" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
         <v>6</v>
       </c>
@@ -7899,7 +7919,7 @@
         <v>13</v>
       </c>
       <c r="G137" s="12" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H137" t="s">
         <v>25</v>
@@ -7908,7 +7928,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="138" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
         <v>6</v>
       </c>
@@ -7929,7 +7949,7 @@
         <v>13</v>
       </c>
       <c r="G138" s="12" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="H138" t="s">
         <v>25</v>
@@ -7938,7 +7958,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="139" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
         <v>6</v>
       </c>
@@ -7959,7 +7979,7 @@
         <v>13</v>
       </c>
       <c r="G139" s="12" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="H139" t="s">
         <v>25</v>
@@ -7968,7 +7988,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="140" spans="1:9" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
         <v>6</v>
       </c>
@@ -7989,7 +8009,7 @@
         <v>35</v>
       </c>
       <c r="G140" s="12" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H140" t="s">
         <v>25</v>
@@ -7998,7 +8018,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="141" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
         <v>6</v>
       </c>
@@ -8019,7 +8039,7 @@
         <v>35</v>
       </c>
       <c r="G141" s="12" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="H141" t="s">
         <v>25</v>
@@ -8028,7 +8048,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="142" spans="1:9" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
         <v>6</v>
       </c>
@@ -8049,7 +8069,7 @@
         <v>197</v>
       </c>
       <c r="G142" s="12" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="H142" t="s">
         <v>25</v>
@@ -8058,7 +8078,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="143" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
         <v>6</v>
       </c>
@@ -8079,7 +8099,7 @@
         <v>13</v>
       </c>
       <c r="G143" s="12" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="H143" t="s">
         <v>25</v>
@@ -8088,7 +8108,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="144" spans="1:9" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
         <v>6</v>
       </c>
@@ -8109,7 +8129,7 @@
         <v>13</v>
       </c>
       <c r="G144" s="12" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="H144" t="s">
         <v>25</v>
@@ -8118,7 +8138,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="145" spans="1:9" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
         <v>6</v>
       </c>
@@ -8139,7 +8159,7 @@
         <v>13</v>
       </c>
       <c r="G145" s="12" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H145" t="s">
         <v>25</v>
@@ -8148,7 +8168,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="146" spans="1:9" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
         <v>6</v>
       </c>
@@ -8169,7 +8189,7 @@
         <v>13</v>
       </c>
       <c r="G146" s="12" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="H146" t="s">
         <v>25</v>
@@ -8178,7 +8198,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="147" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
         <v>6</v>
       </c>
@@ -8199,7 +8219,7 @@
         <v>13</v>
       </c>
       <c r="G147" s="12" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="H147" t="s">
         <v>25</v>
@@ -8208,7 +8228,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="148" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
         <v>6</v>
       </c>
@@ -8229,7 +8249,7 @@
         <v>13</v>
       </c>
       <c r="G148" s="12" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="H148" t="s">
         <v>25</v>
@@ -8238,7 +8258,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="149" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
         <v>6</v>
       </c>
@@ -8259,7 +8279,7 @@
         <v>13</v>
       </c>
       <c r="G149" s="12" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="H149" t="s">
         <v>25</v>
@@ -8268,7 +8288,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="150" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
         <v>6</v>
       </c>
@@ -8289,7 +8309,7 @@
         <v>13</v>
       </c>
       <c r="G150" s="12" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="H150" t="s">
         <v>25</v>
@@ -8298,7 +8318,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="151" spans="1:9" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
         <v>6</v>
       </c>
@@ -8319,7 +8339,7 @@
         <v>13</v>
       </c>
       <c r="G151" s="12" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H151" t="s">
         <v>25</v>
@@ -8328,7 +8348,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="152" spans="1:9" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
         <v>6</v>
       </c>
@@ -8349,7 +8369,7 @@
         <v>35</v>
       </c>
       <c r="G152" s="12" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="H152" t="s">
         <v>25</v>
@@ -8358,7 +8378,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="153" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
         <v>6</v>
       </c>
@@ -8379,7 +8399,7 @@
         <v>13</v>
       </c>
       <c r="G153" s="12" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="H153" t="s">
         <v>25</v>
@@ -8388,7 +8408,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="154" spans="1:9" ht="315" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9" ht="315" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
         <v>6</v>
       </c>
@@ -8418,7 +8438,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="155" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
         <v>6</v>
       </c>
@@ -8439,7 +8459,7 @@
         <v>13</v>
       </c>
       <c r="G155" s="12" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="H155" t="s">
         <v>25</v>
@@ -8448,7 +8468,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="156" spans="1:9" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
         <v>6</v>
       </c>
@@ -8469,7 +8489,7 @@
         <v>35</v>
       </c>
       <c r="G156" s="12" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="H156" t="s">
         <v>25</v>
@@ -8478,7 +8498,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="157" spans="1:9" ht="300" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:9" ht="300" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
         <v>6</v>
       </c>
@@ -8508,7 +8528,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="158" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
         <v>6</v>
       </c>
@@ -8538,7 +8558,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="159" spans="1:9" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
         <v>6</v>
       </c>
@@ -8559,7 +8579,7 @@
         <v>13</v>
       </c>
       <c r="G159" s="12" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="H159" t="s">
         <v>25</v>
@@ -8568,7 +8588,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="160" spans="1:9" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
         <v>6</v>
       </c>
@@ -8598,7 +8618,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="161" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
         <v>6</v>
       </c>
@@ -8619,7 +8639,7 @@
         <v>13</v>
       </c>
       <c r="G161" s="12" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="H161" t="s">
         <v>25</v>
@@ -8649,7 +8669,7 @@
         <v>137</v>
       </c>
       <c r="G162" s="12" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="H162" t="s">
         <v>25</v>
@@ -8688,7 +8708,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="164" spans="1:9" ht="255" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:9" ht="255" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
         <v>6</v>
       </c>
@@ -8718,7 +8738,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="165" spans="1:9" ht="345" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:9" ht="345" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
         <v>6</v>
       </c>
@@ -8748,7 +8768,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="166" spans="1:9" ht="300" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:9" ht="300" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
         <v>6</v>
       </c>
@@ -8778,7 +8798,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="167" spans="1:9" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
         <v>6</v>
       </c>
@@ -8808,7 +8828,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="168" spans="1:9" ht="285" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:9" ht="285" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
         <v>6</v>
       </c>
@@ -8838,7 +8858,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="169" spans="1:9" ht="195" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:9" ht="195" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
         <v>6</v>
       </c>
@@ -8868,7 +8888,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="170" spans="1:9" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
         <v>6</v>
       </c>
@@ -8898,7 +8918,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="171" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
         <v>6</v>
       </c>
@@ -8928,7 +8948,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="172" spans="1:9" ht="225" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:9" ht="225" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
         <v>6</v>
       </c>
@@ -8958,7 +8978,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="173" spans="1:9" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
         <v>6</v>
       </c>
@@ -8988,7 +9008,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="174" spans="1:9" ht="195" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:9" ht="195" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
         <v>6</v>
       </c>
@@ -9048,7 +9068,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="176" spans="1:9" ht="345" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:9" ht="345" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
         <v>6</v>
       </c>
@@ -9078,7 +9098,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="177" spans="1:9" ht="180" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:9" ht="180" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
         <v>6</v>
       </c>
@@ -9108,7 +9128,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="178" spans="1:9" ht="360" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:9" ht="360" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
         <v>6</v>
       </c>
@@ -9138,7 +9158,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="179" spans="1:9" ht="195" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:9" ht="195" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
         <v>6</v>
       </c>
@@ -9168,7 +9188,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="180" spans="1:9" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
         <v>6</v>
       </c>
@@ -9198,7 +9218,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="181" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181" s="6" t="s">
         <v>5</v>
       </c>
@@ -9228,7 +9248,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="182" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A182" s="6" t="s">
         <v>5</v>
       </c>
@@ -9258,7 +9278,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="183" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A183" s="6" t="s">
         <v>5</v>
       </c>
@@ -9288,7 +9308,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="184" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A184" s="6" t="s">
         <v>5</v>
       </c>
@@ -9318,7 +9338,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="185" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A185" s="6" t="s">
         <v>5</v>
       </c>
@@ -9348,7 +9368,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="186" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A186" s="6" t="s">
         <v>5</v>
       </c>
@@ -9380,7 +9400,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="187" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A187" s="6" t="s">
         <v>5</v>
       </c>
@@ -9410,7 +9430,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="188" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A188" s="6" t="s">
         <v>5</v>
       </c>
@@ -9440,7 +9460,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="189" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A189" s="6" t="s">
         <v>5</v>
       </c>
@@ -9470,7 +9490,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="190" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A190" s="6" t="s">
         <v>5</v>
       </c>
@@ -9500,7 +9520,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="191" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A191" s="6" t="s">
         <v>5</v>
       </c>
@@ -9530,7 +9550,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="192" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A192" s="6" t="s">
         <v>5</v>
       </c>
@@ -9560,7 +9580,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="193" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A193" s="6" t="s">
         <v>5</v>
       </c>
@@ -9590,7 +9610,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="194" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A194" s="6" t="s">
         <v>5</v>
       </c>
@@ -9620,7 +9640,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="195" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A195" s="6" t="s">
         <v>5</v>
       </c>
@@ -9650,7 +9670,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="196" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A196" s="6" t="s">
         <v>5</v>
       </c>
@@ -9680,7 +9700,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="197" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A197" s="6" t="s">
         <v>5</v>
       </c>
@@ -9710,7 +9730,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="198" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A198" s="6" t="s">
         <v>5</v>
       </c>
@@ -9740,7 +9760,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="199" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A199" s="6" t="s">
         <v>5</v>
       </c>
@@ -9772,7 +9792,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="200" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A200" s="6" t="s">
         <v>5</v>
       </c>
@@ -9802,7 +9822,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="201" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A201" s="6" t="s">
         <v>5</v>
       </c>
@@ -9832,7 +9852,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="202" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A202" s="6" t="s">
         <v>5</v>
       </c>
@@ -9862,7 +9882,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="203" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A203" s="6" t="s">
         <v>5</v>
       </c>
@@ -9892,7 +9912,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="204" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A204" s="6" t="s">
         <v>5</v>
       </c>
@@ -9922,7 +9942,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="205" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A205" s="6" t="s">
         <v>5</v>
       </c>
@@ -9952,7 +9972,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="206" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A206" s="6" t="s">
         <v>5</v>
       </c>
@@ -9984,7 +10004,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="207" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A207" s="6" t="s">
         <v>5</v>
       </c>
@@ -10014,7 +10034,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="208" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A208" s="6" t="s">
         <v>5</v>
       </c>
@@ -10044,7 +10064,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="209" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A209" s="6" t="s">
         <v>5</v>
       </c>
@@ -10074,7 +10094,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="210" spans="1:9" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A210" s="5" t="s">
         <v>9</v>
       </c>
@@ -10104,7 +10124,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="211" spans="1:9" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A211" s="5" t="s">
         <v>9</v>
       </c>
@@ -10134,7 +10154,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="212" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A212" s="5" t="s">
         <v>9</v>
       </c>
@@ -10164,7 +10184,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="213" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A213" s="5" t="s">
         <v>9</v>
       </c>
@@ -10194,7 +10214,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="214" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A214" s="5" t="s">
         <v>9</v>
       </c>
@@ -10224,7 +10244,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="215" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A215" s="5" t="s">
         <v>9</v>
       </c>
@@ -10254,7 +10274,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="216" spans="1:9" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A216" s="5" t="s">
         <v>9</v>
       </c>
@@ -10284,7 +10304,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="217" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A217" s="5" t="s">
         <v>9</v>
       </c>
@@ -10314,7 +10334,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="218" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A218" s="5" t="s">
         <v>9</v>
       </c>
@@ -10344,7 +10364,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="219" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A219" s="5" t="s">
         <v>9</v>
       </c>
@@ -10374,7 +10394,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="220" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A220" s="5" t="s">
         <v>9</v>
       </c>
@@ -10404,7 +10424,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="221" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A221" s="5" t="s">
         <v>9</v>
       </c>
@@ -10434,7 +10454,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="222" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A222" s="5" t="s">
         <v>9</v>
       </c>
@@ -10464,7 +10484,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="223" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A223" s="5" t="s">
         <v>9</v>
       </c>
@@ -10494,7 +10514,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="224" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A224" s="5" t="s">
         <v>9</v>
       </c>
@@ -10524,7 +10544,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="225" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A225" s="5" t="s">
         <v>9</v>
       </c>
@@ -10554,7 +10574,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="226" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A226" s="5" t="s">
         <v>9</v>
       </c>
@@ -10584,7 +10604,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="227" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A227" s="5" t="s">
         <v>9</v>
       </c>
@@ -10614,7 +10634,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="228" spans="1:9" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A228" s="5" t="s">
         <v>9</v>
       </c>
@@ -10644,7 +10664,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="229" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A229" s="5" t="s">
         <v>9</v>
       </c>
@@ -10674,7 +10694,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="230" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A230" s="5" t="s">
         <v>9</v>
       </c>
@@ -10704,7 +10724,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="231" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A231" s="5" t="s">
         <v>9</v>
       </c>
@@ -10734,7 +10754,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="232" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A232" s="5" t="s">
         <v>9</v>
       </c>
@@ -10764,7 +10784,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="233" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A233" s="5" t="s">
         <v>9</v>
       </c>
@@ -10794,7 +10814,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="234" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A234" s="5" t="s">
         <v>9</v>
       </c>
@@ -10824,7 +10844,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="235" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A235" s="5" t="s">
         <v>9</v>
       </c>
@@ -10854,7 +10874,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="236" spans="1:9" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A236" s="5" t="s">
         <v>9</v>
       </c>
@@ -10884,7 +10904,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="237" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A237" s="5" t="s">
         <v>9</v>
       </c>
@@ -10914,7 +10934,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="238" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A238" s="5" t="s">
         <v>9</v>
       </c>
@@ -10944,7 +10964,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="239" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A239" s="5" t="s">
         <v>9</v>
       </c>
@@ -10974,7 +10994,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="240" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A240" s="5" t="s">
         <v>9</v>
       </c>
@@ -11004,7 +11024,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="241" spans="1:9" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A241" s="5" t="s">
         <v>9</v>
       </c>
@@ -11034,7 +11054,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="242" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A242" s="5" t="s">
         <v>9</v>
       </c>
@@ -11064,7 +11084,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="243" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A243" s="5" t="s">
         <v>9</v>
       </c>
@@ -11094,7 +11114,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="244" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A244" s="5" t="s">
         <v>9</v>
       </c>
@@ -11124,7 +11144,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="245" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A245" s="5" t="s">
         <v>9</v>
       </c>
@@ -11154,7 +11174,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="246" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A246" s="5" t="s">
         <v>9</v>
       </c>
@@ -11184,7 +11204,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="247" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A247" s="5" t="s">
         <v>9</v>
       </c>
@@ -11214,7 +11234,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="248" spans="1:9" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A248" s="3" t="s">
         <v>7</v>
       </c>
@@ -11244,7 +11264,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="249" spans="1:9" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A249" s="3" t="s">
         <v>7</v>
       </c>
@@ -11265,7 +11285,7 @@
         <v>13</v>
       </c>
       <c r="G249" s="12" t="s">
-        <v>332</v>
+        <v>673</v>
       </c>
       <c r="H249" t="s">
         <v>25</v>
@@ -11274,7 +11294,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="250" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A250" s="3" t="s">
         <v>7</v>
       </c>
@@ -11286,7 +11306,7 @@
         <v>328</v>
       </c>
       <c r="D250" s="12" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E250" t="s">
         <v>201</v>
@@ -11294,7 +11314,9 @@
       <c r="F250" t="s">
         <v>13</v>
       </c>
-      <c r="G250" s="12"/>
+      <c r="G250" s="12" t="s">
+        <v>674</v>
+      </c>
       <c r="H250" t="s">
         <v>25</v>
       </c>
@@ -11302,7 +11324,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="251" spans="1:9" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A251" s="3" t="s">
         <v>7</v>
       </c>
@@ -11314,7 +11336,7 @@
         <v>328</v>
       </c>
       <c r="D251" s="12" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E251" t="s">
         <v>201</v>
@@ -11323,7 +11345,7 @@
         <v>13</v>
       </c>
       <c r="G251" s="12" t="s">
-        <v>332</v>
+        <v>675</v>
       </c>
       <c r="H251" t="s">
         <v>25</v>
@@ -11332,7 +11354,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="252" spans="1:9" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A252" s="3" t="s">
         <v>7</v>
       </c>
@@ -11344,7 +11366,7 @@
         <v>328</v>
       </c>
       <c r="D252" s="12" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E252" t="s">
         <v>201</v>
@@ -11353,7 +11375,7 @@
         <v>13</v>
       </c>
       <c r="G252" s="12" t="s">
-        <v>332</v>
+        <v>675</v>
       </c>
       <c r="H252" t="s">
         <v>25</v>
@@ -11362,7 +11384,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="253" spans="1:9" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A253" s="3" t="s">
         <v>7</v>
       </c>
@@ -11374,7 +11396,7 @@
         <v>328</v>
       </c>
       <c r="D253" s="12" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E253" t="s">
         <v>201</v>
@@ -11383,7 +11405,7 @@
         <v>13</v>
       </c>
       <c r="G253" s="12" t="s">
-        <v>332</v>
+        <v>675</v>
       </c>
       <c r="H253" t="s">
         <v>25</v>
@@ -11392,7 +11414,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="254" spans="1:9" ht="270" hidden="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:9" ht="270" x14ac:dyDescent="0.25">
       <c r="A254" s="3" t="s">
         <v>7</v>
       </c>
@@ -11401,20 +11423,20 @@
         <v>The Edna Campbell Scholarship for Women</v>
       </c>
       <c r="C254" t="s">
+        <v>336</v>
+      </c>
+      <c r="D254" s="12" t="s">
         <v>337</v>
       </c>
-      <c r="D254" s="12" t="s">
+      <c r="E254" t="s">
         <v>338</v>
       </c>
-      <c r="E254" t="s">
+      <c r="F254" t="s">
+        <v>13</v>
+      </c>
+      <c r="G254" s="12" t="s">
         <v>339</v>
       </c>
-      <c r="F254" t="s">
-        <v>13</v>
-      </c>
-      <c r="G254" s="12" t="s">
-        <v>340</v>
-      </c>
       <c r="H254" t="s">
         <v>25</v>
       </c>
@@ -11422,7 +11444,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="255" spans="1:9" ht="195" hidden="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:9" ht="195" x14ac:dyDescent="0.25">
       <c r="A255" s="3" t="s">
         <v>7</v>
       </c>
@@ -11431,10 +11453,10 @@
         <v>John, Belle &amp; Richard Miller, Bridgewater Scholarships for Opportunity</v>
       </c>
       <c r="C255" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D255" s="12" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E255" t="s">
         <v>201</v>
@@ -11443,7 +11465,7 @@
         <v>13</v>
       </c>
       <c r="G255" s="12" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H255" t="s">
         <v>25</v>
@@ -11452,7 +11474,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="256" spans="1:9" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A256" s="3" t="s">
         <v>7</v>
       </c>
@@ -11461,20 +11483,20 @@
         <v>Transforming Futures Scholarship - Future Students</v>
       </c>
       <c r="C256" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D256" s="12" t="s">
+        <v>342</v>
+      </c>
+      <c r="E256" t="s">
+        <v>338</v>
+      </c>
+      <c r="F256" t="s">
+        <v>13</v>
+      </c>
+      <c r="G256" s="12" t="s">
         <v>343</v>
       </c>
-      <c r="E256" t="s">
-        <v>339</v>
-      </c>
-      <c r="F256" t="s">
-        <v>13</v>
-      </c>
-      <c r="G256" s="12" t="s">
-        <v>344</v>
-      </c>
       <c r="H256" t="s">
         <v>25</v>
       </c>
@@ -11482,7 +11504,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="257" spans="1:9" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A257" s="3" t="s">
         <v>7</v>
       </c>
@@ -11491,10 +11513,10 @@
         <v>Liverpool City Council Opportunity Scholarship</v>
       </c>
       <c r="C257" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D257" s="12" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E257" t="s">
         <v>201</v>
@@ -11503,7 +11525,7 @@
         <v>13</v>
       </c>
       <c r="G257" s="12" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H257" t="s">
         <v>25</v>
@@ -11512,7 +11534,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="258" spans="1:9" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A258" s="3" t="s">
         <v>7</v>
       </c>
@@ -11521,10 +11543,10 @@
         <v>The Salvestrin Sartor Jones Scholarship</v>
       </c>
       <c r="C258" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D258" s="12" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E258" t="s">
         <v>41</v>
@@ -11533,7 +11555,7 @@
         <v>13</v>
       </c>
       <c r="G258" s="12" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H258" t="s">
         <v>25</v>
@@ -11542,7 +11564,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="259" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A259" s="3" t="s">
         <v>7</v>
       </c>
@@ -11551,20 +11573,20 @@
         <v>De Dominicis Foundation Opportunity Scholarship for STEM Students</v>
       </c>
       <c r="C259" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D259" s="12" t="s">
+        <v>348</v>
+      </c>
+      <c r="E259" t="s">
+        <v>338</v>
+      </c>
+      <c r="F259" t="s">
+        <v>13</v>
+      </c>
+      <c r="G259" s="12" t="s">
         <v>349</v>
       </c>
-      <c r="E259" t="s">
-        <v>339</v>
-      </c>
-      <c r="F259" t="s">
-        <v>13</v>
-      </c>
-      <c r="G259" s="12" t="s">
-        <v>350</v>
-      </c>
       <c r="H259" t="s">
         <v>25</v>
       </c>
@@ -11572,7 +11594,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="260" spans="1:9" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A260" s="3" t="s">
         <v>7</v>
       </c>
@@ -11581,20 +11603,20 @@
         <v>Wollongong Chapter No. 59 Order of the Eastern Star Nursing Opportunity Scholarship</v>
       </c>
       <c r="C260" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D260" s="12" t="s">
+        <v>350</v>
+      </c>
+      <c r="E260" t="s">
+        <v>338</v>
+      </c>
+      <c r="F260" t="s">
+        <v>13</v>
+      </c>
+      <c r="G260" s="12" t="s">
         <v>351</v>
       </c>
-      <c r="E260" t="s">
-        <v>339</v>
-      </c>
-      <c r="F260" t="s">
-        <v>13</v>
-      </c>
-      <c r="G260" s="12" t="s">
-        <v>352</v>
-      </c>
       <c r="H260" t="s">
         <v>25</v>
       </c>
@@ -11602,7 +11624,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="261" spans="1:9" ht="330" hidden="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:9" ht="330" x14ac:dyDescent="0.25">
       <c r="A261" s="3" t="s">
         <v>7</v>
       </c>
@@ -11611,10 +11633,10 @@
         <v>The Stevenson Family Scholarship in Social Work</v>
       </c>
       <c r="C261" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D261" s="12" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E261" t="s">
         <v>41</v>
@@ -11623,7 +11645,7 @@
         <v>13</v>
       </c>
       <c r="G261" s="12" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H261" t="s">
         <v>25</v>
@@ -11632,7 +11654,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="262" spans="1:9" ht="300" hidden="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:9" ht="300" x14ac:dyDescent="0.25">
       <c r="A262" s="3" t="s">
         <v>7</v>
       </c>
@@ -11641,10 +11663,10 @@
         <v>St Georges Basin Community Scholarship</v>
       </c>
       <c r="C262" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D262" s="12" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E262" t="s">
         <v>201</v>
@@ -11653,7 +11675,7 @@
         <v>13</v>
       </c>
       <c r="G262" s="12" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H262" t="s">
         <v>25</v>
@@ -11662,7 +11684,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="263" spans="1:9" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A263" s="3" t="s">
         <v>7</v>
       </c>
@@ -11671,20 +11693,20 @@
         <v>The Illawarra Centenary of ANZAC Scholarship</v>
       </c>
       <c r="C263" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D263" s="12" t="s">
+        <v>356</v>
+      </c>
+      <c r="E263" t="s">
+        <v>338</v>
+      </c>
+      <c r="F263" t="s">
+        <v>13</v>
+      </c>
+      <c r="G263" s="12" t="s">
         <v>357</v>
       </c>
-      <c r="E263" t="s">
-        <v>339</v>
-      </c>
-      <c r="F263" t="s">
-        <v>13</v>
-      </c>
-      <c r="G263" s="12" t="s">
-        <v>358</v>
-      </c>
       <c r="H263" t="s">
         <v>25</v>
       </c>
@@ -11692,7 +11714,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="264" spans="1:9" ht="360" hidden="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:9" ht="360" x14ac:dyDescent="0.25">
       <c r="A264" s="3" t="s">
         <v>7</v>
       </c>
@@ -11701,10 +11723,10 @@
         <v>Ivan Bandur Master of Teaching Scholarship</v>
       </c>
       <c r="C264" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D264" s="12" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E264" t="s">
         <v>205</v>
@@ -11713,7 +11735,7 @@
         <v>51</v>
       </c>
       <c r="G264" s="12" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H264" t="s">
         <v>25</v>
@@ -11731,19 +11753,19 @@
         <v>Destination Australia Scholarship (Domestic Students)</v>
       </c>
       <c r="C265" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D265" s="10" t="s">
         <v>295</v>
       </c>
       <c r="E265" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="F265" t="s">
         <v>35</v>
       </c>
       <c r="G265" s="12" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="H265" t="s">
         <v>25</v>
@@ -11752,7 +11774,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="266" spans="1:9" ht="330" hidden="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:9" ht="330" x14ac:dyDescent="0.25">
       <c r="A266" s="3" t="s">
         <v>7</v>
       </c>
@@ -11761,10 +11783,10 @@
         <v>Club Liverpool Community Scholarship</v>
       </c>
       <c r="C266" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D266" s="12" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E266" t="s">
         <v>201</v>
@@ -11773,7 +11795,7 @@
         <v>13</v>
       </c>
       <c r="G266" s="12" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H266" t="s">
         <v>25</v>
@@ -11782,7 +11804,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="267" spans="1:9" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:9" ht="165" x14ac:dyDescent="0.25">
       <c r="A267" s="3" t="s">
         <v>7</v>
       </c>
@@ -11791,10 +11813,10 @@
         <v>Rural and Regional Agricultural Scholarship</v>
       </c>
       <c r="C267" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D267" s="12" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E267" t="s">
         <v>331</v>
@@ -11803,7 +11825,7 @@
         <v>13</v>
       </c>
       <c r="G267" s="12" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H267" t="s">
         <v>25</v>
@@ -11812,7 +11834,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="268" spans="1:9" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A268" s="3" t="s">
         <v>7</v>
       </c>
@@ -11821,10 +11843,10 @@
         <v>The Movement Disorder Foundation Scholarship</v>
       </c>
       <c r="C268" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D268" s="12" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E268" t="s">
         <v>331</v>
@@ -11833,7 +11855,7 @@
         <v>35</v>
       </c>
       <c r="G268" s="12" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H268" t="s">
         <v>25</v>
@@ -11842,7 +11864,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="269" spans="1:9" ht="345" hidden="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:9" ht="345" x14ac:dyDescent="0.25">
       <c r="A269" s="3" t="s">
         <v>7</v>
       </c>
@@ -11851,10 +11873,10 @@
         <v>Mudgee Region Community Scholarship</v>
       </c>
       <c r="C269" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D269" s="12" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E269" t="s">
         <v>41</v>
@@ -11863,7 +11885,7 @@
         <v>13</v>
       </c>
       <c r="G269" s="12" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H269" t="s">
         <v>25</v>
@@ -11872,7 +11894,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="270" spans="1:9" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A270" s="3" t="s">
         <v>7</v>
       </c>
@@ -11881,20 +11903,20 @@
         <v>Dylan Alcott Foundation Scholarship</v>
       </c>
       <c r="C270" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D270" s="12" t="s">
+        <v>367</v>
+      </c>
+      <c r="E270" t="s">
+        <v>338</v>
+      </c>
+      <c r="F270" t="s">
+        <v>13</v>
+      </c>
+      <c r="G270" s="12" t="s">
         <v>368</v>
       </c>
-      <c r="E270" t="s">
-        <v>339</v>
-      </c>
-      <c r="F270" t="s">
-        <v>13</v>
-      </c>
-      <c r="G270" s="12" t="s">
-        <v>369</v>
-      </c>
       <c r="H270" t="s">
         <v>25</v>
       </c>
@@ -11902,7 +11924,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="271" spans="1:9" ht="345" hidden="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:9" ht="345" x14ac:dyDescent="0.25">
       <c r="A271" s="3" t="s">
         <v>7</v>
       </c>
@@ -11911,19 +11933,19 @@
         <v>Housing Trust Opportunity Scholarship</v>
       </c>
       <c r="C271" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D271" s="12" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E271" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F271" t="s">
         <v>13</v>
       </c>
       <c r="G271" s="12" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H271" t="s">
         <v>25</v>
@@ -11932,7 +11954,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="272" spans="1:9" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A272" s="3" t="s">
         <v>7</v>
       </c>
@@ -11941,10 +11963,10 @@
         <v>Regional Kick Start Scholarships</v>
       </c>
       <c r="C272" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D272" s="12" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E272" t="s">
         <v>201</v>
@@ -11953,7 +11975,7 @@
         <v>35</v>
       </c>
       <c r="G272" s="12" t="s">
-        <v>332</v>
+        <v>677</v>
       </c>
       <c r="H272" t="s">
         <v>25</v>
@@ -11962,7 +11984,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="273" spans="1:9" ht="360" hidden="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:9" ht="360" x14ac:dyDescent="0.25">
       <c r="A273" s="3" t="s">
         <v>7</v>
       </c>
@@ -11971,19 +11993,19 @@
         <v>The City of Wollongong RSL Sub-Branch ANZAC Scholarship</v>
       </c>
       <c r="C273" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D273" s="12" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E273" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F273" t="s">
         <v>13</v>
       </c>
       <c r="G273" s="12" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H273" t="s">
         <v>25</v>
@@ -11992,7 +12014,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="274" spans="1:9" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A274" s="3" t="s">
         <v>7</v>
       </c>
@@ -12001,10 +12023,10 @@
         <v>The Tibra Foundation Scholarship in Mathematics</v>
       </c>
       <c r="C274" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D274" s="12" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E274" t="s">
         <v>205</v>
@@ -12013,7 +12035,7 @@
         <v>13</v>
       </c>
       <c r="G274" s="12" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H274" t="s">
         <v>25</v>
@@ -12022,7 +12044,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="275" spans="1:9" ht="375" hidden="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:9" ht="375" x14ac:dyDescent="0.25">
       <c r="A275" s="3" t="s">
         <v>7</v>
       </c>
@@ -12031,19 +12053,19 @@
         <v>Risland Community Scholarship in Engineering</v>
       </c>
       <c r="C275" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D275" s="12" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E275" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F275" t="s">
         <v>13</v>
       </c>
       <c r="G275" s="12" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H275" t="s">
         <v>25</v>
@@ -12052,7 +12074,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="276" spans="1:9" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A276" s="3" t="s">
         <v>7</v>
       </c>
@@ -12061,10 +12083,10 @@
         <v>UOW Ramsay Scholarship</v>
       </c>
       <c r="C276" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D276" s="12" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E276" t="s">
         <v>285</v>
@@ -12073,7 +12095,7 @@
         <v>13</v>
       </c>
       <c r="G276" s="12" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H276" t="s">
         <v>25</v>
@@ -12082,7 +12104,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="277" spans="1:9" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A277" s="3" t="s">
         <v>7</v>
       </c>
@@ -12091,10 +12113,10 @@
         <v>Rhondda and Margaret Williams Scholarship for Rural Medicine</v>
       </c>
       <c r="C277" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D277" s="12" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E277" t="s">
         <v>331</v>
@@ -12103,7 +12125,7 @@
         <v>51</v>
       </c>
       <c r="G277" s="12" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H277" t="s">
         <v>25</v>
@@ -12112,7 +12134,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="278" spans="1:9" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A278" s="3" t="s">
         <v>7</v>
       </c>
@@ -12121,20 +12143,20 @@
         <v>The George Alexander Foundation Scholarship</v>
       </c>
       <c r="C278" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D278" s="12" t="s">
+        <v>378</v>
+      </c>
+      <c r="E278" t="s">
+        <v>338</v>
+      </c>
+      <c r="F278" t="s">
+        <v>13</v>
+      </c>
+      <c r="G278" s="12" t="s">
         <v>379</v>
       </c>
-      <c r="E278" t="s">
-        <v>339</v>
-      </c>
-      <c r="F278" t="s">
-        <v>13</v>
-      </c>
-      <c r="G278" s="12" t="s">
-        <v>380</v>
-      </c>
       <c r="H278" t="s">
         <v>25</v>
       </c>
@@ -12142,7 +12164,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="279" spans="1:9" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A279" s="3" t="s">
         <v>7</v>
       </c>
@@ -12151,20 +12173,20 @@
         <v>Westpac Young Technologists Scholarship</v>
       </c>
       <c r="C279" t="s">
+        <v>380</v>
+      </c>
+      <c r="D279" s="12" t="s">
         <v>381</v>
       </c>
-      <c r="D279" s="12" t="s">
+      <c r="E279" t="s">
+        <v>338</v>
+      </c>
+      <c r="F279" t="s">
+        <v>13</v>
+      </c>
+      <c r="G279" s="12" t="s">
         <v>382</v>
       </c>
-      <c r="E279" t="s">
-        <v>339</v>
-      </c>
-      <c r="F279" t="s">
-        <v>13</v>
-      </c>
-      <c r="G279" s="12" t="s">
-        <v>383</v>
-      </c>
       <c r="H279" t="s">
         <v>25</v>
       </c>
@@ -12172,7 +12194,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="280" spans="1:9" ht="225" hidden="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:9" ht="225" x14ac:dyDescent="0.25">
       <c r="A280" s="3" t="s">
         <v>7</v>
       </c>
@@ -12181,20 +12203,20 @@
         <v>McLoughlin Minerva Scholarship for Sportswomen</v>
       </c>
       <c r="C280" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D280" s="12" t="s">
+        <v>383</v>
+      </c>
+      <c r="E280" t="s">
+        <v>338</v>
+      </c>
+      <c r="F280" t="s">
+        <v>13</v>
+      </c>
+      <c r="G280" s="12" t="s">
         <v>384</v>
       </c>
-      <c r="E280" t="s">
-        <v>339</v>
-      </c>
-      <c r="F280" t="s">
-        <v>13</v>
-      </c>
-      <c r="G280" s="12" t="s">
-        <v>385</v>
-      </c>
       <c r="H280" t="s">
         <v>25</v>
       </c>
@@ -12202,7 +12224,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="281" spans="1:9" ht="225" hidden="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:9" ht="225" x14ac:dyDescent="0.25">
       <c r="A281" s="3" t="s">
         <v>7</v>
       </c>
@@ -12214,7 +12236,7 @@
         <v>27</v>
       </c>
       <c r="D281" s="12" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E281" t="s">
         <v>201</v>
@@ -12223,7 +12245,7 @@
         <v>13</v>
       </c>
       <c r="G281" s="12" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H281" t="s">
         <v>25</v>
@@ -12232,7 +12254,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="282" spans="1:9" ht="255" hidden="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:9" ht="255" x14ac:dyDescent="0.25">
       <c r="A282" s="3" t="s">
         <v>7</v>
       </c>
@@ -12244,7 +12266,7 @@
         <v>328</v>
       </c>
       <c r="D282" s="12" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E282" t="s">
         <v>201</v>
@@ -12253,7 +12275,7 @@
         <v>51</v>
       </c>
       <c r="G282" s="12" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H282" t="s">
         <v>25</v>
@@ -12262,7 +12284,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="283" spans="1:9" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A283" s="3" t="s">
         <v>7</v>
       </c>
@@ -12274,7 +12296,7 @@
         <v>14</v>
       </c>
       <c r="D283" s="12" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E283" t="s">
         <v>201</v>
@@ -12283,7 +12305,7 @@
         <v>13</v>
       </c>
       <c r="G283" s="12" t="s">
-        <v>332</v>
+        <v>676</v>
       </c>
       <c r="H283" t="s">
         <v>25</v>
@@ -12292,7 +12314,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="284" spans="1:9" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A284" s="3" t="s">
         <v>7</v>
       </c>
@@ -12301,10 +12323,10 @@
         <v>Veolia Mulwaree Trust Community Equity Scholarship</v>
       </c>
       <c r="C284" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D284" s="12" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E284" t="s">
         <v>201</v>
@@ -12313,7 +12335,7 @@
         <v>13</v>
       </c>
       <c r="G284" s="12" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H284" t="s">
         <v>25</v>
@@ -12322,7 +12344,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="285" spans="1:9" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A285" s="3" t="s">
         <v>7</v>
       </c>
@@ -12331,10 +12353,10 @@
         <v>Graduate School of Medicine Phase 4 Rural Placement Scholarship</v>
       </c>
       <c r="C285" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D285" s="12" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E285" t="s">
         <v>201</v>
@@ -12343,7 +12365,7 @@
         <v>51</v>
       </c>
       <c r="G285" s="12" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H285" t="s">
         <v>25</v>
@@ -12352,7 +12374,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="286" spans="1:9" ht="255" hidden="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:9" ht="255" x14ac:dyDescent="0.25">
       <c r="A286" s="3" t="s">
         <v>7</v>
       </c>
@@ -12361,10 +12383,10 @@
         <v>Graduate School of Medicine Phase 3 Community Funded Scholarship</v>
       </c>
       <c r="C286" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D286" s="12" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E286" t="s">
         <v>201</v>
@@ -12373,7 +12395,7 @@
         <v>51</v>
       </c>
       <c r="G286" s="12" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H286" t="s">
         <v>25</v>
@@ -12382,7 +12404,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="287" spans="1:9" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:9" ht="165" x14ac:dyDescent="0.25">
       <c r="A287" s="3" t="s">
         <v>7</v>
       </c>
@@ -12391,20 +12413,20 @@
         <v>UOW Alumni Bookshop Scholarship</v>
       </c>
       <c r="C287" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D287" s="12" t="s">
+        <v>394</v>
+      </c>
+      <c r="E287" t="s">
+        <v>338</v>
+      </c>
+      <c r="F287" t="s">
+        <v>13</v>
+      </c>
+      <c r="G287" s="12" t="s">
         <v>395</v>
       </c>
-      <c r="E287" t="s">
-        <v>339</v>
-      </c>
-      <c r="F287" t="s">
-        <v>13</v>
-      </c>
-      <c r="G287" s="12" t="s">
-        <v>396</v>
-      </c>
       <c r="H287" t="s">
         <v>25</v>
       </c>
@@ -12412,7 +12434,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="288" spans="1:9" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A288" s="3" t="s">
         <v>7</v>
       </c>
@@ -12421,10 +12443,10 @@
         <v>Liverpool City Council Opportunity Scholarship</v>
       </c>
       <c r="C288" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D288" s="12" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E288" t="s">
         <v>201</v>
@@ -12433,7 +12455,7 @@
         <v>13</v>
       </c>
       <c r="G288" s="12" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H288" t="s">
         <v>25</v>
@@ -12442,7 +12464,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="289" spans="1:9" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A289" s="3" t="s">
         <v>7</v>
       </c>
@@ -12451,19 +12473,19 @@
         <v>The Holt Estate Environmental Science Scholarship</v>
       </c>
       <c r="C289" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D289" s="12" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E289" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F289" t="s">
         <v>13</v>
       </c>
       <c r="G289" s="12" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H289" t="s">
         <v>25</v>
@@ -12472,7 +12494,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="290" spans="1:9" ht="180" hidden="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:9" ht="180" x14ac:dyDescent="0.25">
       <c r="A290" s="3" t="s">
         <v>7</v>
       </c>
@@ -12481,19 +12503,19 @@
         <v>Transforming Futures Scholarship- Current Students</v>
       </c>
       <c r="C290" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D290" s="12" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E290" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F290" t="s">
         <v>13</v>
       </c>
       <c r="G290" s="12" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H290" t="s">
         <v>25</v>
@@ -12502,7 +12524,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="291" spans="1:9" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A291" s="3" t="s">
         <v>7</v>
       </c>
@@ -12511,10 +12533,10 @@
         <v>The Robert Sidhwani Memorial Scholarship in Medicine</v>
       </c>
       <c r="C291" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D291" s="12" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E291" t="s">
         <v>201</v>
@@ -12523,7 +12545,7 @@
         <v>51</v>
       </c>
       <c r="G291" s="12" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H291" t="s">
         <v>25</v>
@@ -12532,7 +12554,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="292" spans="1:9" ht="360" hidden="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:9" ht="360" x14ac:dyDescent="0.25">
       <c r="A292" s="3" t="s">
         <v>7</v>
       </c>
@@ -12541,10 +12563,10 @@
         <v>Motion Asia Pacific Opportunity Scholarship</v>
       </c>
       <c r="C292" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D292" s="12" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E292" t="s">
         <v>331</v>
@@ -12553,7 +12575,7 @@
         <v>13</v>
       </c>
       <c r="G292" s="12" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H292" t="s">
         <v>25</v>
@@ -12562,7 +12584,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="293" spans="1:9" ht="195" hidden="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:9" ht="195" x14ac:dyDescent="0.25">
       <c r="A293" s="3" t="s">
         <v>7</v>
       </c>
@@ -12571,10 +12593,10 @@
         <v>Bomaderry Bowling Club Opportunity Scholarship</v>
       </c>
       <c r="C293" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D293" s="12" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E293" t="s">
         <v>201</v>
@@ -12583,7 +12605,7 @@
         <v>13</v>
       </c>
       <c r="G293" s="12" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H293" t="s">
         <v>25</v>
@@ -12592,7 +12614,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="294" spans="1:9" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A294" s="3" t="s">
         <v>7</v>
       </c>
@@ -12601,10 +12623,10 @@
         <v>St Georges Basin Country Club Opportunity Scholarship</v>
       </c>
       <c r="C294" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D294" s="12" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E294" t="s">
         <v>201</v>
@@ -12613,7 +12635,7 @@
         <v>13</v>
       </c>
       <c r="G294" s="12" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H294" t="s">
         <v>25</v>
@@ -12631,10 +12653,10 @@
         <v>Albion Park RSL Memorial Club Scholarship</v>
       </c>
       <c r="C295" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D295" s="10" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E295" t="s">
         <v>201</v>
@@ -12643,7 +12665,7 @@
         <v>13</v>
       </c>
       <c r="G295" s="12" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H295" t="s">
         <v>25</v>
@@ -12652,7 +12674,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="296" spans="1:9" ht="225" hidden="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:9" ht="225" x14ac:dyDescent="0.25">
       <c r="A296" s="3" t="s">
         <v>7</v>
       </c>
@@ -12661,10 +12683,10 @@
         <v>The Patterson Family Scholarship</v>
       </c>
       <c r="C296" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D296" s="12" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E296" t="s">
         <v>201</v>
@@ -12673,7 +12695,7 @@
         <v>13</v>
       </c>
       <c r="G296" s="12" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H296" t="s">
         <v>25</v>
@@ -12682,7 +12704,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="297" spans="1:9" ht="270" hidden="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:9" ht="270" x14ac:dyDescent="0.25">
       <c r="A297" s="3" t="s">
         <v>7</v>
       </c>
@@ -12691,10 +12713,10 @@
         <v>Clever Care Now Nursing Opportunity Scholarship</v>
       </c>
       <c r="C297" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D297" s="12" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E297" t="s">
         <v>201</v>
@@ -12703,7 +12725,7 @@
         <v>13</v>
       </c>
       <c r="G297" s="12" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H297" t="s">
         <v>25</v>
@@ -12712,7 +12734,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="298" spans="1:9" ht="240" hidden="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:9" ht="240" x14ac:dyDescent="0.25">
       <c r="A298" s="3" t="s">
         <v>7</v>
       </c>
@@ -12721,10 +12743,10 @@
         <v>Nursing Clinical Placement Scholarship</v>
       </c>
       <c r="C298" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D298" s="12" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E298" t="s">
         <v>201</v>
@@ -12733,7 +12755,7 @@
         <v>13</v>
       </c>
       <c r="G298" s="12" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H298" t="s">
         <v>25</v>
@@ -12742,7 +12764,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="299" spans="1:9" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A299" s="3" t="s">
         <v>7</v>
       </c>
@@ -12751,10 +12773,10 @@
         <v>Women in Finance and Economics Scholarship Program (Postgraduate)</v>
       </c>
       <c r="C299" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D299" s="12" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E299" t="s">
         <v>201</v>
@@ -12763,7 +12785,7 @@
         <v>51</v>
       </c>
       <c r="G299" s="12" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H299" t="s">
         <v>25</v>
@@ -12772,7 +12794,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="300" spans="1:9" ht="240" hidden="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:9" ht="240" x14ac:dyDescent="0.25">
       <c r="A300" s="3" t="s">
         <v>7</v>
       </c>
@@ -12781,20 +12803,20 @@
         <v>Sustainable Futures Opportunity Scholarship</v>
       </c>
       <c r="C300" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D300" s="12" t="s">
+        <v>412</v>
+      </c>
+      <c r="E300" t="s">
+        <v>338</v>
+      </c>
+      <c r="F300" t="s">
+        <v>13</v>
+      </c>
+      <c r="G300" s="12" t="s">
         <v>413</v>
       </c>
-      <c r="E300" t="s">
-        <v>339</v>
-      </c>
-      <c r="F300" t="s">
-        <v>13</v>
-      </c>
-      <c r="G300" s="12" t="s">
-        <v>414</v>
-      </c>
       <c r="H300" t="s">
         <v>25</v>
       </c>
@@ -12802,7 +12824,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="301" spans="1:9" ht="225" hidden="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:9" ht="225" x14ac:dyDescent="0.25">
       <c r="A301" s="3" t="s">
         <v>7</v>
       </c>
@@ -12811,10 +12833,10 @@
         <v>Tom Maguire Memorial Scholarship for Law</v>
       </c>
       <c r="C301" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D301" s="12" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E301" t="s">
         <v>201</v>
@@ -12823,7 +12845,7 @@
         <v>13</v>
       </c>
       <c r="G301" s="12" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H301" t="s">
         <v>25</v>
@@ -12832,7 +12854,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="302" spans="1:9" ht="195" hidden="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:9" ht="195" x14ac:dyDescent="0.25">
       <c r="A302" s="3" t="s">
         <v>7</v>
       </c>
@@ -12841,10 +12863,10 @@
         <v>ZML Foundation Opportunity Scholarship</v>
       </c>
       <c r="C302" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D302" s="12" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E302" t="s">
         <v>201</v>
@@ -12853,7 +12875,7 @@
         <v>13</v>
       </c>
       <c r="G302" s="12" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H302" t="s">
         <v>25</v>
@@ -12862,7 +12884,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="303" spans="1:9" ht="270" hidden="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:9" ht="270" x14ac:dyDescent="0.25">
       <c r="A303" s="3" t="s">
         <v>7</v>
       </c>
@@ -12871,20 +12893,20 @@
         <v>Recovery Camp Nursing Scholarship</v>
       </c>
       <c r="C303" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D303" s="12" t="s">
+        <v>416</v>
+      </c>
+      <c r="E303" t="s">
+        <v>338</v>
+      </c>
+      <c r="F303" t="s">
+        <v>13</v>
+      </c>
+      <c r="G303" s="12" t="s">
         <v>417</v>
       </c>
-      <c r="E303" t="s">
-        <v>339</v>
-      </c>
-      <c r="F303" t="s">
-        <v>13</v>
-      </c>
-      <c r="G303" s="12" t="s">
-        <v>418</v>
-      </c>
       <c r="H303" t="s">
         <v>25</v>
       </c>
@@ -12892,7 +12914,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="304" spans="1:9" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A304" s="3" t="s">
         <v>7</v>
       </c>
@@ -12901,10 +12923,10 @@
         <v>UOW Medical and Health Society Opportunity Scholarship</v>
       </c>
       <c r="C304" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D304" s="12" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E304" t="s">
         <v>201</v>
@@ -12913,7 +12935,7 @@
         <v>13</v>
       </c>
       <c r="G304" s="12" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H304" t="s">
         <v>25</v>
@@ -12922,7 +12944,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="305" spans="1:9" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A305" s="3" t="s">
         <v>7</v>
       </c>
@@ -12931,19 +12953,19 @@
         <v>Andrew Ferrier Scholarship in Technology &amp; Engineering</v>
       </c>
       <c r="C305" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D305" s="12" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E305" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F305" t="s">
         <v>13</v>
       </c>
       <c r="G305" s="12" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H305" t="s">
         <v>25</v>
@@ -12952,7 +12974,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="306" spans="1:9" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:9" ht="165" x14ac:dyDescent="0.25">
       <c r="A306" s="3" t="s">
         <v>7</v>
       </c>
@@ -12961,10 +12983,10 @@
         <v>Delivering 4 Customers (D4C) Opportunity Scholarship for Engineering</v>
       </c>
       <c r="C306" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D306" s="12" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E306" t="s">
         <v>201</v>
@@ -12973,7 +12995,7 @@
         <v>13</v>
       </c>
       <c r="G306" s="12" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H306" t="s">
         <v>25</v>
@@ -12982,7 +13004,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="307" spans="1:9" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A307" s="3" t="s">
         <v>7</v>
       </c>
@@ -12991,10 +13013,10 @@
         <v>Women in Finance and Economics Scholarship Program (Undergraduate)</v>
       </c>
       <c r="C307" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D307" s="12" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E307" t="s">
         <v>201</v>
@@ -13003,7 +13025,7 @@
         <v>13</v>
       </c>
       <c r="G307" s="12" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H307" t="s">
         <v>25</v>
@@ -13012,7 +13034,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="308" spans="1:9" ht="375" hidden="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:9" ht="375" x14ac:dyDescent="0.25">
       <c r="A308" s="3" t="s">
         <v>7</v>
       </c>
@@ -13021,10 +13043,10 @@
         <v>Doris Matlok Law Scholarship</v>
       </c>
       <c r="C308" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D308" s="12" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E308" t="s">
         <v>201</v>
@@ -13033,7 +13055,7 @@
         <v>13</v>
       </c>
       <c r="G308" s="12" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H308" t="s">
         <v>25</v>
@@ -13042,7 +13064,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="309" spans="1:9" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A309" s="3" t="s">
         <v>7</v>
       </c>
@@ -13051,10 +13073,10 @@
         <v>Ray and Peggy Allen Graduate School of Medicine Scholarship</v>
       </c>
       <c r="C309" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D309" s="12" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E309" t="s">
         <v>201</v>
@@ -13063,7 +13085,7 @@
         <v>51</v>
       </c>
       <c r="G309" s="12" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H309" t="s">
         <v>25</v>
@@ -13081,10 +13103,10 @@
         <v>Advanced Buildings Opportunity Scholarship in OHS</v>
       </c>
       <c r="C310" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D310" s="10" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E310" t="s">
         <v>201</v>
@@ -13093,7 +13115,7 @@
         <v>51</v>
       </c>
       <c r="G310" s="12" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H310" t="s">
         <v>25</v>
@@ -13102,7 +13124,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="311" spans="1:9" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A311" s="3" t="s">
         <v>7</v>
       </c>
@@ -13111,10 +13133,10 @@
         <v>Honorary Chapter Scholarship Program</v>
       </c>
       <c r="C311" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D311" s="12" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E311" t="s">
         <v>201</v>
@@ -13123,7 +13145,7 @@
         <v>13</v>
       </c>
       <c r="G311" s="12" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H311" t="s">
         <v>25</v>
@@ -13132,7 +13154,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="312" spans="1:9" ht="330" hidden="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:9" ht="330" x14ac:dyDescent="0.25">
       <c r="A312" s="3" t="s">
         <v>7</v>
       </c>
@@ -13141,10 +13163,10 @@
         <v>The Stevenson Family Scholarship in Social Work</v>
       </c>
       <c r="C312" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D312" s="12" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E312" t="s">
         <v>41</v>
@@ -13153,7 +13175,7 @@
         <v>13</v>
       </c>
       <c r="G312" s="12" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H312" t="s">
         <v>25</v>
@@ -13162,7 +13184,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="313" spans="1:9" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A313" s="3" t="s">
         <v>7</v>
       </c>
@@ -13171,10 +13193,10 @@
         <v>Jack Goldring Memorial Scholarship</v>
       </c>
       <c r="C313" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D313" s="12" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E313" t="s">
         <v>201</v>
@@ -13183,7 +13205,7 @@
         <v>13</v>
       </c>
       <c r="G313" s="12" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H313" t="s">
         <v>25</v>
@@ -13192,7 +13214,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="314" spans="1:9" ht="225" hidden="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:9" ht="225" x14ac:dyDescent="0.25">
       <c r="A314" s="3" t="s">
         <v>7</v>
       </c>
@@ -13204,17 +13226,17 @@
         <v>27</v>
       </c>
       <c r="D314" s="12" t="s">
+        <v>430</v>
+      </c>
+      <c r="E314" t="s">
+        <v>338</v>
+      </c>
+      <c r="F314" t="s">
+        <v>13</v>
+      </c>
+      <c r="G314" s="12" t="s">
         <v>431</v>
       </c>
-      <c r="E314" t="s">
-        <v>339</v>
-      </c>
-      <c r="F314" t="s">
-        <v>13</v>
-      </c>
-      <c r="G314" s="12" t="s">
-        <v>432</v>
-      </c>
       <c r="H314" t="s">
         <v>25</v>
       </c>
@@ -13222,7 +13244,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="315" spans="1:9" ht="225" hidden="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:9" ht="225" x14ac:dyDescent="0.25">
       <c r="A315" s="3" t="s">
         <v>7</v>
       </c>
@@ -13231,10 +13253,10 @@
         <v>Mollymook Golf Club Community Scholarship</v>
       </c>
       <c r="C315" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D315" s="12" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E315" t="s">
         <v>201</v>
@@ -13243,7 +13265,7 @@
         <v>13</v>
       </c>
       <c r="G315" s="12" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H315" t="s">
         <v>25</v>
@@ -13252,7 +13274,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="316" spans="1:9" ht="255" hidden="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:9" ht="255" x14ac:dyDescent="0.25">
       <c r="A316" s="3" t="s">
         <v>7</v>
       </c>
@@ -13261,10 +13283,10 @@
         <v>Mumbulla Foundation Community Scholarships</v>
       </c>
       <c r="C316" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D316" s="12" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E316" t="s">
         <v>201</v>
@@ -13273,7 +13295,7 @@
         <v>13</v>
       </c>
       <c r="G316" s="12" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H316" t="s">
         <v>25</v>
@@ -13282,7 +13304,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="317" spans="1:9" ht="180" hidden="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:9" ht="180" x14ac:dyDescent="0.25">
       <c r="A317" s="3" t="s">
         <v>7</v>
       </c>
@@ -13291,10 +13313,10 @@
         <v>Rotary Club of Bega Commerce Scholarship</v>
       </c>
       <c r="C317" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D317" s="12" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E317" t="s">
         <v>201</v>
@@ -13303,7 +13325,7 @@
         <v>13</v>
       </c>
       <c r="G317" s="12" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H317" t="s">
         <v>25</v>
@@ -13312,7 +13334,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="318" spans="1:9" ht="300" hidden="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:9" ht="300" x14ac:dyDescent="0.25">
       <c r="A318" s="3" t="s">
         <v>7</v>
       </c>
@@ -13321,10 +13343,10 @@
         <v>Rotary Club of West Wollongong John Chaplin Memorial Scholarship</v>
       </c>
       <c r="C318" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D318" s="12" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E318" t="s">
         <v>205</v>
@@ -13333,7 +13355,7 @@
         <v>13</v>
       </c>
       <c r="G318" s="12" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H318" t="s">
         <v>25</v>
@@ -13342,7 +13364,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="319" spans="1:9" ht="180" hidden="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:9" ht="180" x14ac:dyDescent="0.25">
       <c r="A319" s="3" t="s">
         <v>7</v>
       </c>
@@ -13351,10 +13373,10 @@
         <v>UOW Bega Alumni Business Scholarship</v>
       </c>
       <c r="C319" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D319" s="12" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E319" t="s">
         <v>201</v>
@@ -13363,7 +13385,7 @@
         <v>13</v>
       </c>
       <c r="G319" s="12" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H319" t="s">
         <v>25</v>
@@ -13372,7 +13394,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="320" spans="1:9" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A320" s="3" t="s">
         <v>7</v>
       </c>
@@ -13381,10 +13403,10 @@
         <v>World Transformation Scholarship</v>
       </c>
       <c r="C320" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D320" s="12" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E320" t="s">
         <v>201</v>
@@ -13393,7 +13415,7 @@
         <v>35</v>
       </c>
       <c r="G320" s="12" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H320" t="s">
         <v>25</v>
@@ -13402,7 +13424,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="321" spans="1:9" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A321" s="3" t="s">
         <v>7</v>
       </c>
@@ -13411,10 +13433,10 @@
         <v>Rowe Scientific Chemistry Scholarship</v>
       </c>
       <c r="C321" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D321" s="12" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E321" t="s">
         <v>201</v>
@@ -13423,7 +13445,7 @@
         <v>13</v>
       </c>
       <c r="G321" s="12" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H321" t="s">
         <v>25</v>
@@ -13432,7 +13454,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="322" spans="1:9" ht="345" hidden="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:9" ht="345" x14ac:dyDescent="0.25">
       <c r="A322" s="3" t="s">
         <v>7</v>
       </c>
@@ -13441,10 +13463,10 @@
         <v>Cunningham D'Souza Family Scholarship</v>
       </c>
       <c r="C322" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D322" s="12" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E322" t="s">
         <v>201</v>
@@ -13453,7 +13475,7 @@
         <v>13</v>
       </c>
       <c r="G322" s="12" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H322" t="s">
         <v>25</v>
@@ -13474,7 +13496,7 @@
         <v>27</v>
       </c>
       <c r="D323" s="10" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E323" t="s">
         <v>24</v>
@@ -13483,7 +13505,7 @@
         <v>35</v>
       </c>
       <c r="G323" s="12" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H323" t="s">
         <v>25</v>
@@ -13501,10 +13523,10 @@
         <v>The Rotary Club of Pambula John Moffatt Memorial Scholarship</v>
       </c>
       <c r="C324" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D324" s="10" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E324" t="s">
         <v>24</v>
@@ -13513,7 +13535,7 @@
         <v>51</v>
       </c>
       <c r="G324" s="12" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H324" t="s">
         <v>25</v>
@@ -13522,7 +13544,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="325" spans="1:9" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A325" s="3" t="s">
         <v>7</v>
       </c>
@@ -13534,7 +13556,7 @@
         <v>27</v>
       </c>
       <c r="D325" s="12" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E325" t="s">
         <v>201</v>
@@ -13543,7 +13565,7 @@
         <v>35</v>
       </c>
       <c r="G325" s="12" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H325" t="s">
         <v>25</v>
@@ -13552,7 +13574,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="326" spans="1:9" ht="315" hidden="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:9" ht="315" x14ac:dyDescent="0.25">
       <c r="A326" s="3" t="s">
         <v>7</v>
       </c>
@@ -13561,10 +13583,10 @@
         <v>Winifred Smith Scholarship for Excellence in Nursing</v>
       </c>
       <c r="C326" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D326" s="12" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E326" t="s">
         <v>205</v>
@@ -13573,7 +13595,7 @@
         <v>13</v>
       </c>
       <c r="G326" s="12" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H326" t="s">
         <v>25</v>
@@ -13582,7 +13604,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="327" spans="1:9" ht="180" hidden="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:9" ht="180" x14ac:dyDescent="0.25">
       <c r="A327" s="3" t="s">
         <v>7</v>
       </c>
@@ -13591,10 +13613,10 @@
         <v>Bega Cheese Community Scholarship</v>
       </c>
       <c r="C327" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D327" s="12" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E327" t="s">
         <v>201</v>
@@ -13603,7 +13625,7 @@
         <v>13</v>
       </c>
       <c r="G327" s="12" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="H327" t="s">
         <v>25</v>
@@ -13612,7 +13634,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="328" spans="1:9" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:9" ht="165" x14ac:dyDescent="0.25">
       <c r="A328" s="3" t="s">
         <v>7</v>
       </c>
@@ -13621,10 +13643,10 @@
         <v>Bega Lions Club Trevor Prescott Memorial Scholarship</v>
       </c>
       <c r="C328" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D328" s="12" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E328" t="s">
         <v>41</v>
@@ -13633,7 +13655,7 @@
         <v>13</v>
       </c>
       <c r="G328" s="12" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H328" t="s">
         <v>25</v>
@@ -13642,7 +13664,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="329" spans="1:9" ht="240" hidden="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:9" ht="240" x14ac:dyDescent="0.25">
       <c r="A329" s="3" t="s">
         <v>7</v>
       </c>
@@ -13651,10 +13673,10 @@
         <v>Bega RSL Sub Branch Christine Farrow Nursing Scholarship</v>
       </c>
       <c r="C329" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D329" s="12" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E329" t="s">
         <v>201</v>
@@ -13663,7 +13685,7 @@
         <v>13</v>
       </c>
       <c r="G329" s="12" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="H329" t="s">
         <v>25</v>
@@ -13672,7 +13694,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="330" spans="1:9" ht="255" hidden="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:9" ht="255" x14ac:dyDescent="0.25">
       <c r="A330" s="3" t="s">
         <v>7</v>
       </c>
@@ -13681,10 +13703,10 @@
         <v>Bendigo Bank's Bruce Hetherington Memorial Community Scholarship</v>
       </c>
       <c r="C330" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D330" s="12" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E330" t="s">
         <v>201</v>
@@ -13693,7 +13715,7 @@
         <v>13</v>
       </c>
       <c r="G330" s="12" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H330" t="s">
         <v>25</v>
@@ -13702,7 +13724,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="331" spans="1:9" ht="270" hidden="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:9" ht="270" x14ac:dyDescent="0.25">
       <c r="A331" s="3" t="s">
         <v>7</v>
       </c>
@@ -13711,19 +13733,19 @@
         <v>Bomaderry Bowling Club Community Scholarship</v>
       </c>
       <c r="C331" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D331" s="12" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E331" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F331" t="s">
         <v>13</v>
       </c>
       <c r="G331" s="12" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H331" t="s">
         <v>25</v>
@@ -13732,7 +13754,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="332" spans="1:9" ht="300" hidden="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:9" ht="300" x14ac:dyDescent="0.25">
       <c r="A332" s="3" t="s">
         <v>7</v>
       </c>
@@ -13741,10 +13763,10 @@
         <v>Christopher Zweerman Memorial Scholarship</v>
       </c>
       <c r="C332" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D332" s="12" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E332" t="s">
         <v>201</v>
@@ -13753,7 +13775,7 @@
         <v>51</v>
       </c>
       <c r="G332" s="12" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H332" t="s">
         <v>25</v>
@@ -13762,7 +13784,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="333" spans="1:9" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A333" s="3" t="s">
         <v>7</v>
       </c>
@@ -13771,10 +13793,10 @@
         <v>Collins Nursing Scholarship</v>
       </c>
       <c r="C333" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D333" s="12" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E333" t="s">
         <v>201</v>
@@ -13783,7 +13805,7 @@
         <v>13</v>
       </c>
       <c r="G333" s="12" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H333" t="s">
         <v>25</v>
@@ -13792,7 +13814,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="334" spans="1:9" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A334" s="3" t="s">
         <v>7</v>
       </c>
@@ -13801,10 +13823,10 @@
         <v>Rotary Club of Bega - Dr Blomfield Memorial Nursing Scholarship</v>
       </c>
       <c r="C334" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D334" s="12" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E334" t="s">
         <v>201</v>
@@ -13813,7 +13835,7 @@
         <v>13</v>
       </c>
       <c r="G334" s="12" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="H334" t="s">
         <v>25</v>
@@ -13822,7 +13844,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="335" spans="1:9" ht="375" hidden="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:9" ht="375" x14ac:dyDescent="0.25">
       <c r="A335" s="3" t="s">
         <v>7</v>
       </c>
@@ -13831,10 +13853,10 @@
         <v>Hazel Holmwood Scholarship for Excellence in Leadership and Quality Teaching</v>
       </c>
       <c r="C335" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D335" s="12" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E335" t="s">
         <v>201</v>
@@ -13843,7 +13865,7 @@
         <v>13</v>
       </c>
       <c r="G335" s="12" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H335" t="s">
         <v>25</v>
@@ -13852,7 +13874,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="336" spans="1:9" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A336" s="3" t="s">
         <v>7</v>
       </c>
@@ -13861,10 +13883,10 @@
         <v>Howard Worner Memorial Scholarship</v>
       </c>
       <c r="C336" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D336" s="12" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E336" t="s">
         <v>331</v>
@@ -13873,7 +13895,7 @@
         <v>13</v>
       </c>
       <c r="G336" s="12" t="s">
-        <v>332</v>
+        <v>678</v>
       </c>
       <c r="H336" t="s">
         <v>25</v>
@@ -13882,7 +13904,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="337" spans="1:9" ht="360" hidden="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:9" ht="360" x14ac:dyDescent="0.25">
       <c r="A337" s="3" t="s">
         <v>7</v>
       </c>
@@ -13891,10 +13913,10 @@
         <v>Ivan Bandur Master of Teaching Scholarship</v>
       </c>
       <c r="C337" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D337" s="12" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E337" t="s">
         <v>205</v>
@@ -13903,7 +13925,7 @@
         <v>51</v>
       </c>
       <c r="G337" s="12" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H337" t="s">
         <v>25</v>
@@ -13912,7 +13934,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="338" spans="1:9" ht="315" hidden="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:9" ht="315" x14ac:dyDescent="0.25">
       <c r="A338" s="3" t="s">
         <v>7</v>
       </c>
@@ -13921,10 +13943,10 @@
         <v>Mumbulla Foundation Community Scholarship (Master of Teaching)</v>
       </c>
       <c r="C338" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D338" s="12" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E338" t="s">
         <v>201</v>
@@ -13933,7 +13955,7 @@
         <v>51</v>
       </c>
       <c r="G338" s="12" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H338" t="s">
         <v>25</v>
@@ -13942,7 +13964,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="339" spans="1:9" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A339" s="3" t="s">
         <v>7</v>
       </c>
@@ -13951,10 +13973,10 @@
         <v>Australian Maritime Safety Authority Excellence in Maritime Policy Postgraduate Scholarship</v>
       </c>
       <c r="C339" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D339" s="12" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E339" t="s">
         <v>201</v>
@@ -13963,7 +13985,7 @@
         <v>51</v>
       </c>
       <c r="G339" s="12" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="H339" t="s">
         <v>25</v>
@@ -13981,19 +14003,19 @@
         <v>Australian Maritime Safety Authority Excellence in Maritime Studies Postgraduate Scholarship</v>
       </c>
       <c r="C340" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D340" s="10" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E340" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F340" t="s">
         <v>51</v>
       </c>
       <c r="G340" s="12" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="H340" t="s">
         <v>25</v>
@@ -14002,7 +14024,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="341" spans="1:9" ht="330" hidden="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:9" ht="330" x14ac:dyDescent="0.25">
       <c r="A341" s="3" t="s">
         <v>7</v>
       </c>
@@ -14011,10 +14033,10 @@
         <v>Club Liverpool Community Scholarship</v>
       </c>
       <c r="C341" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D341" s="12" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E341" t="s">
         <v>201</v>
@@ -14023,7 +14045,7 @@
         <v>13</v>
       </c>
       <c r="G341" s="12" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H341" t="s">
         <v>25</v>
@@ -14032,7 +14054,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="342" spans="1:9" ht="210" hidden="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:9" ht="210" x14ac:dyDescent="0.25">
       <c r="A342" s="3" t="s">
         <v>7</v>
       </c>
@@ -14041,10 +14063,10 @@
         <v>Graduate School of Medicine Critical Care Scholarship</v>
       </c>
       <c r="C342" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D342" s="12" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E342" t="s">
         <v>201</v>
@@ -14053,7 +14075,7 @@
         <v>51</v>
       </c>
       <c r="G342" s="12" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="H342" t="s">
         <v>25</v>
@@ -14062,7 +14084,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="343" spans="1:9" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:9" ht="165" x14ac:dyDescent="0.25">
       <c r="A343" s="3" t="s">
         <v>7</v>
       </c>
@@ -14071,10 +14093,10 @@
         <v>Rural and Regional Agricultural Scholarship</v>
       </c>
       <c r="C343" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D343" s="12" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E343" t="s">
         <v>331</v>
@@ -14083,7 +14105,7 @@
         <v>13</v>
       </c>
       <c r="G343" s="12" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H343" t="s">
         <v>25</v>
@@ -14092,7 +14114,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="344" spans="1:9" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A344" s="3" t="s">
         <v>7</v>
       </c>
@@ -14101,10 +14123,10 @@
         <v>The Movement Disorder Foundation Scholarship</v>
       </c>
       <c r="C344" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D344" s="12" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E344" t="s">
         <v>331</v>
@@ -14113,7 +14135,7 @@
         <v>35</v>
       </c>
       <c r="G344" s="12" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H344" t="s">
         <v>25</v>
@@ -14122,7 +14144,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="345" spans="1:9" ht="405" hidden="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:9" ht="405" x14ac:dyDescent="0.25">
       <c r="A345" s="3" t="s">
         <v>7</v>
       </c>
@@ -14131,10 +14153,10 @@
         <v>Zonta Club of Wollongong Community Scholarship</v>
       </c>
       <c r="C345" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D345" s="12" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E345" t="s">
         <v>201</v>
@@ -14143,7 +14165,7 @@
         <v>13</v>
       </c>
       <c r="G345" s="12" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="H345" t="s">
         <v>25</v>
@@ -14152,7 +14174,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="346" spans="1:9" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A346" s="3" t="s">
         <v>7</v>
       </c>
@@ -14161,10 +14183,10 @@
         <v>The Do Your Thing Scholarship for Female Developers</v>
       </c>
       <c r="C346" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D346" s="12" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E346" t="s">
         <v>201</v>
@@ -14173,7 +14195,7 @@
         <v>13</v>
       </c>
       <c r="G346" s="12" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="H346" t="s">
         <v>25</v>
@@ -14182,7 +14204,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="347" spans="1:9" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A347" s="3" t="s">
         <v>7</v>
       </c>
@@ -14191,10 +14213,10 @@
         <v>Emeritus Professor John Hogg Memorial Scholarship</v>
       </c>
       <c r="C347" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D347" s="12" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E347" t="s">
         <v>201</v>
@@ -14203,7 +14225,7 @@
         <v>51</v>
       </c>
       <c r="G347" s="12" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H347" t="s">
         <v>25</v>
@@ -14212,7 +14234,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="348" spans="1:9" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A348" s="3" t="s">
         <v>7</v>
       </c>
@@ -14221,10 +14243,10 @@
         <v>The Acorn Lawyers Scholarship</v>
       </c>
       <c r="C348" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D348" s="12" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E348" t="s">
         <v>201</v>
@@ -14233,7 +14255,7 @@
         <v>13</v>
       </c>
       <c r="G348" s="12" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H348" t="s">
         <v>25</v>
@@ -14242,7 +14264,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="349" spans="1:9" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A349" s="3" t="s">
         <v>7</v>
       </c>
@@ -14251,10 +14273,10 @@
         <v>Dr SC &amp; SL Loomba Commitment to Medicine Scholarship</v>
       </c>
       <c r="C349" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D349" s="12" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E349" t="s">
         <v>201</v>
@@ -14263,7 +14285,7 @@
         <v>51</v>
       </c>
       <c r="G349" s="12" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="H349" t="s">
         <v>25</v>
@@ -14272,7 +14294,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="350" spans="1:9" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A350" s="3" t="s">
         <v>7</v>
       </c>
@@ -14281,20 +14303,20 @@
         <v>Dylan Alcott Foundation Scholarship</v>
       </c>
       <c r="C350" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D350" s="12" t="s">
+        <v>367</v>
+      </c>
+      <c r="E350" t="s">
+        <v>338</v>
+      </c>
+      <c r="F350" t="s">
+        <v>13</v>
+      </c>
+      <c r="G350" s="12" t="s">
         <v>368</v>
       </c>
-      <c r="E350" t="s">
-        <v>339</v>
-      </c>
-      <c r="F350" t="s">
-        <v>13</v>
-      </c>
-      <c r="G350" s="12" t="s">
-        <v>369</v>
-      </c>
       <c r="H350" t="s">
         <v>25</v>
       </c>
@@ -14302,7 +14324,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="351" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A351" s="3" t="s">
         <v>7</v>
       </c>
@@ -14311,10 +14333,10 @@
         <v>The Wand Scholarship</v>
       </c>
       <c r="C351" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D351" s="12" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E351" t="s">
         <v>201</v>
@@ -14323,7 +14345,7 @@
         <v>13</v>
       </c>
       <c r="G351" s="12" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H351" t="s">
         <v>25</v>
@@ -14332,7 +14354,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="352" spans="1:9" ht="255" hidden="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:9" ht="255" x14ac:dyDescent="0.25">
       <c r="A352" s="3" t="s">
         <v>7</v>
       </c>
@@ -14341,10 +14363,10 @@
         <v>Motion Asia Pacific Community Scholarship</v>
       </c>
       <c r="C352" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D352" s="12" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E352" t="s">
         <v>331</v>
@@ -14353,7 +14375,7 @@
         <v>13</v>
       </c>
       <c r="G352" s="12" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H352" t="s">
         <v>25</v>
@@ -14362,7 +14384,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="353" spans="1:9" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A353" s="3" t="s">
         <v>7</v>
       </c>
@@ -14371,10 +14393,10 @@
         <v>Pamela Jane Nye Working Nurse Scholarship</v>
       </c>
       <c r="C353" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D353" s="12" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E353" t="s">
         <v>201</v>
@@ -14383,7 +14405,7 @@
         <v>51</v>
       </c>
       <c r="G353" s="12" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H353" t="s">
         <v>25</v>
@@ -14392,7 +14414,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="354" spans="1:9" ht="195" hidden="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:9" ht="195" x14ac:dyDescent="0.25">
       <c r="A354" s="3" t="s">
         <v>7</v>
       </c>
@@ -14401,10 +14423,10 @@
         <v>Lions Club of Tathra Nursing Scholarship</v>
       </c>
       <c r="C354" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D354" s="12" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E354" t="s">
         <v>201</v>
@@ -14413,7 +14435,7 @@
         <v>13</v>
       </c>
       <c r="G354" s="12" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H354" t="s">
         <v>25</v>
@@ -14422,7 +14444,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="355" spans="1:9" ht="345" hidden="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:9" ht="345" x14ac:dyDescent="0.25">
       <c r="A355" s="3" t="s">
         <v>7</v>
       </c>
@@ -14431,10 +14453,10 @@
         <v>The John Ryan Memorial Scholarship</v>
       </c>
       <c r="C355" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D355" s="12" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E355" t="s">
         <v>201</v>
@@ -14443,7 +14465,7 @@
         <v>51</v>
       </c>
       <c r="G355" s="12" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H355" t="s">
         <v>25</v>
@@ -14452,7 +14474,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="356" spans="1:9" ht="360" hidden="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:9" ht="360" x14ac:dyDescent="0.25">
       <c r="A356" s="3" t="s">
         <v>7</v>
       </c>
@@ -14461,19 +14483,19 @@
         <v>The City of Wollongong RSL Sub-Branch ANZAC Scholarship</v>
       </c>
       <c r="C356" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D356" s="12" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E356" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F356" t="s">
         <v>13</v>
       </c>
       <c r="G356" s="12" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H356" t="s">
         <v>25</v>
@@ -14482,7 +14504,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="357" spans="1:9" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A357" s="3" t="s">
         <v>7</v>
       </c>
@@ -14491,10 +14513,10 @@
         <v>Tynan Family Molecular Horizons Honours Scholarship</v>
       </c>
       <c r="C357" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D357" s="12" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E357" t="s">
         <v>201</v>
@@ -14503,7 +14525,7 @@
         <v>13</v>
       </c>
       <c r="G357" s="12" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H357" t="s">
         <v>25</v>
@@ -14512,7 +14534,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="358" spans="1:9" ht="240" hidden="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:9" ht="240" x14ac:dyDescent="0.25">
       <c r="A358" s="3" t="s">
         <v>7</v>
       </c>
@@ -14521,10 +14543,10 @@
         <v>The Wang Family Scholarship in Civil Engineering</v>
       </c>
       <c r="C358" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D358" s="12" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E358" t="s">
         <v>41</v>
@@ -14533,7 +14555,7 @@
         <v>13</v>
       </c>
       <c r="G358" s="12" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H358" t="s">
         <v>25</v>
@@ -14542,7 +14564,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="359" spans="1:9" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A359" s="3" t="s">
         <v>7</v>
       </c>
@@ -14551,10 +14573,10 @@
         <v>Graduate School of Medicine Phase 4 Clarence Valley Placement Scholarship</v>
       </c>
       <c r="C359" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D359" s="12" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E359" t="s">
         <v>201</v>
@@ -14563,7 +14585,7 @@
         <v>51</v>
       </c>
       <c r="G359" s="12" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H359" t="s">
         <v>25</v>
@@ -14581,10 +14603,10 @@
         <v>The Bega Valley Medical Student Scholarship</v>
       </c>
       <c r="C360" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D360" s="10" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E360" t="s">
         <v>201</v>
@@ -14593,7 +14615,7 @@
         <v>51</v>
       </c>
       <c r="G360" s="12" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H360" t="s">
         <v>25</v>
@@ -14602,7 +14624,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="361" spans="1:9" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A361" s="3" t="s">
         <v>7</v>
       </c>
@@ -14611,10 +14633,10 @@
         <v>Clarence Valley Orchestra Medical Student Scholarship</v>
       </c>
       <c r="C361" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D361" s="12" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E361" t="s">
         <v>201</v>
@@ -14623,7 +14645,7 @@
         <v>51</v>
       </c>
       <c r="G361" s="12" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H361" t="s">
         <v>25</v>
@@ -14632,7 +14654,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="362" spans="1:9" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A362" s="3" t="s">
         <v>7</v>
       </c>
@@ -14641,19 +14663,19 @@
         <v>Illawarra Quota Speech and Hearing Scholarship</v>
       </c>
       <c r="C362" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D362" s="12" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E362" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F362" t="s">
         <v>13</v>
       </c>
       <c r="G362" s="12" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H362" t="s">
         <v>25</v>
@@ -14662,7 +14684,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="363" spans="1:9" ht="375" hidden="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:9" ht="375" x14ac:dyDescent="0.25">
       <c r="A363" s="3" t="s">
         <v>7</v>
       </c>
@@ -14671,19 +14693,19 @@
         <v>Connie Gamble Community Scholarship</v>
       </c>
       <c r="C363" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D363" s="12" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E363" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F363" t="s">
         <v>13</v>
       </c>
       <c r="G363" s="12" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H363" t="s">
         <v>25</v>
@@ -14692,7 +14714,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="364" spans="1:9" ht="375" hidden="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:9" ht="375" x14ac:dyDescent="0.25">
       <c r="A364" s="3" t="s">
         <v>7</v>
       </c>
@@ -14701,19 +14723,19 @@
         <v>Risland Community Scholarship in Engineering</v>
       </c>
       <c r="C364" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D364" s="12" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E364" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F364" t="s">
         <v>13</v>
       </c>
       <c r="G364" s="12" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H364" t="s">
         <v>25</v>
@@ -14722,7 +14744,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="365" spans="1:9" ht="345" hidden="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:9" ht="345" x14ac:dyDescent="0.25">
       <c r="A365" s="3" t="s">
         <v>7</v>
       </c>
@@ -14731,10 +14753,10 @@
         <v>Burri Burri Scholarship</v>
       </c>
       <c r="C365" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D365" s="12" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E365" t="s">
         <v>201</v>
@@ -14743,7 +14765,7 @@
         <v>13</v>
       </c>
       <c r="G365" s="12" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H365" t="s">
         <v>25</v>
@@ -14752,7 +14774,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="366" spans="1:9" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A366" s="3" t="s">
         <v>7</v>
       </c>
@@ -14761,10 +14783,10 @@
         <v>Glencore Corporate Scholarship</v>
       </c>
       <c r="C366" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D366" s="12" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E366" t="s">
         <v>41</v>
@@ -14773,7 +14795,7 @@
         <v>13</v>
       </c>
       <c r="G366" s="12" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H366" t="s">
         <v>25</v>
@@ -14782,7 +14804,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="367" spans="1:9" ht="225" hidden="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:9" ht="225" x14ac:dyDescent="0.25">
       <c r="A367" s="3" t="s">
         <v>7</v>
       </c>
@@ -14791,10 +14813,10 @@
         <v>South32 David Crawford Scholarship</v>
       </c>
       <c r="C367" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D367" s="12" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E367" t="s">
         <v>201</v>
@@ -14803,7 +14825,7 @@
         <v>13</v>
       </c>
       <c r="G367" s="12" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H367" t="s">
         <v>25</v>
@@ -14812,7 +14834,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="368" spans="1:9" ht="240" hidden="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:9" ht="240" x14ac:dyDescent="0.25">
       <c r="A368" s="3" t="s">
         <v>7</v>
       </c>
@@ -14821,10 +14843,10 @@
         <v>Yancoal Mining Engineering Scholarship</v>
       </c>
       <c r="C368" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D368" s="12" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E368" t="s">
         <v>205</v>
@@ -14833,7 +14855,7 @@
         <v>13</v>
       </c>
       <c r="G368" s="12" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H368" t="s">
         <v>25</v>
@@ -14842,7 +14864,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="369" spans="1:9" ht="195" hidden="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:9" ht="195" x14ac:dyDescent="0.25">
       <c r="A369" s="3" t="s">
         <v>7</v>
       </c>
@@ -14851,10 +14873,10 @@
         <v>Mainfreight Group Corporate Scholarship</v>
       </c>
       <c r="C369" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D369" s="12" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E369" t="s">
         <v>201</v>
@@ -14863,7 +14885,7 @@
         <v>13</v>
       </c>
       <c r="G369" s="12" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H369" t="s">
         <v>25</v>
@@ -14872,7 +14894,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="370" spans="1:9" ht="330" hidden="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:9" ht="330" x14ac:dyDescent="0.25">
       <c r="A370" s="3" t="s">
         <v>7</v>
       </c>
@@ -14881,10 +14903,10 @@
         <v>Clever Care Now Nursing Corporate Scholarship</v>
       </c>
       <c r="C370" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D370" s="12" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="E370" t="s">
         <v>201</v>
@@ -14893,7 +14915,7 @@
         <v>13</v>
       </c>
       <c r="G370" s="12" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H370" t="s">
         <v>25</v>
@@ -14902,7 +14924,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="371" spans="1:9" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A371" s="3" t="s">
         <v>7</v>
       </c>
@@ -14911,10 +14933,10 @@
         <v>Westpac Scholars Trust Asian Exchange Scholarship</v>
       </c>
       <c r="C371" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D371" s="12" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="E371" t="s">
         <v>201</v>
@@ -14923,7 +14945,7 @@
         <v>13</v>
       </c>
       <c r="G371" s="12" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H371" t="s">
         <v>25</v>
@@ -14932,7 +14954,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="372" spans="1:9" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A372" s="3" t="s">
         <v>7</v>
       </c>
@@ -14941,10 +14963,10 @@
         <v>CEA Technologies Corporate Scholarship</v>
       </c>
       <c r="C372" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D372" s="12" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="E372" t="s">
         <v>201</v>
@@ -14953,7 +14975,7 @@
         <v>13</v>
       </c>
       <c r="G372" s="12" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H372" t="s">
         <v>25</v>
@@ -14962,7 +14984,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="373" spans="1:9" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A373" s="3" t="s">
         <v>7</v>
       </c>
@@ -14971,10 +14993,10 @@
         <v>Scalapay Next Generation Scholarship</v>
       </c>
       <c r="C373" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D373" s="12" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E373" t="s">
         <v>201</v>
@@ -14983,7 +15005,7 @@
         <v>13</v>
       </c>
       <c r="G373" s="12" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H373" t="s">
         <v>25</v>
@@ -14992,7 +15014,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="374" spans="1:9" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A374" s="3" t="s">
         <v>7</v>
       </c>
@@ -15001,10 +15023,10 @@
         <v>WMD Law Work Integrated Learning Scholarship</v>
       </c>
       <c r="C374" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D374" s="12" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E374" t="s">
         <v>201</v>
@@ -15013,7 +15035,7 @@
         <v>13</v>
       </c>
       <c r="G374" s="12" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H374" t="s">
         <v>25</v>
@@ -15022,7 +15044,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="375" spans="1:9" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A375" s="3" t="s">
         <v>7</v>
       </c>
@@ -15031,10 +15053,10 @@
         <v>Wollongong City Council Work Integrated Learning Scholarship</v>
       </c>
       <c r="C375" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D375" s="12" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E375" t="s">
         <v>201</v>
@@ -15043,7 +15065,7 @@
         <v>13</v>
       </c>
       <c r="G375" s="12" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H375" t="s">
         <v>25</v>
@@ -15052,7 +15074,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="376" spans="1:9" ht="315" hidden="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:9" ht="315" x14ac:dyDescent="0.25">
       <c r="A376" s="3" t="s">
         <v>7</v>
       </c>
@@ -15061,10 +15083,10 @@
         <v>Huon Contractors Civil Engineering Work Integrated Learning Scholarship</v>
       </c>
       <c r="C376" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D376" s="12" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E376" t="s">
         <v>205</v>
@@ -15073,7 +15095,7 @@
         <v>13</v>
       </c>
       <c r="G376" s="12" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H376" t="s">
         <v>25</v>
@@ -15082,7 +15104,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="377" spans="1:9" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A377" s="3" t="s">
         <v>7</v>
       </c>
@@ -15091,10 +15113,10 @@
         <v>Sir William Tyree Engineering Scholarship</v>
       </c>
       <c r="C377" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D377" s="12" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E377" t="s">
         <v>41</v>
@@ -15103,7 +15125,7 @@
         <v>13</v>
       </c>
       <c r="G377" s="12" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="H377" t="s">
         <v>25</v>
@@ -15112,7 +15134,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="378" spans="1:9" ht="285" hidden="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:9" ht="285" x14ac:dyDescent="0.25">
       <c r="A378" s="3" t="s">
         <v>7</v>
       </c>
@@ -15121,10 +15143,10 @@
         <v>Whale Logistics Work Integrated Learning Scholarship</v>
       </c>
       <c r="C378" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D378" s="12" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E378" t="s">
         <v>201</v>
@@ -15133,7 +15155,7 @@
         <v>13</v>
       </c>
       <c r="G378" s="12" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H378" t="s">
         <v>25</v>
@@ -15142,7 +15164,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="379" spans="1:9" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A379" s="3" t="s">
         <v>7</v>
       </c>
@@ -15151,10 +15173,10 @@
         <v>Morrisons Law Work Integrated Learning Scholarship</v>
       </c>
       <c r="C379" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D379" s="12" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E379" t="s">
         <v>201</v>
@@ -15163,7 +15185,7 @@
         <v>13</v>
       </c>
       <c r="G379" s="12" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H379" t="s">
         <v>25</v>
@@ -15172,7 +15194,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="380" spans="1:9" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A380" s="3" t="s">
         <v>7</v>
       </c>
@@ -15181,10 +15203,10 @@
         <v>IGS Limited Work Integrated Learning Scholarship in Engineering</v>
       </c>
       <c r="C380" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D380" s="12" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E380" t="s">
         <v>201</v>
@@ -15193,7 +15215,7 @@
         <v>13</v>
       </c>
       <c r="G380" s="12" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="H380" t="s">
         <v>25</v>
@@ -15202,7 +15224,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="381" spans="1:9" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A381" s="3" t="s">
         <v>7</v>
       </c>
@@ -15211,10 +15233,10 @@
         <v>SJL Consulting Engineers Work Integrated Learning Scholarship</v>
       </c>
       <c r="C381" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D381" s="12" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E381" t="s">
         <v>201</v>
@@ -15223,7 +15245,7 @@
         <v>13</v>
       </c>
       <c r="G381" s="12" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="H381" t="s">
         <v>25</v>
@@ -15232,7 +15254,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="382" spans="1:9" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A382" s="3" t="s">
         <v>7</v>
       </c>
@@ -15241,10 +15263,10 @@
         <v>542 Partners Work Integrated Learning Scholarship in Accounting</v>
       </c>
       <c r="C382" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D382" s="12" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E382" t="s">
         <v>201</v>
@@ -15253,7 +15275,7 @@
         <v>13</v>
       </c>
       <c r="G382" s="12" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="H382" t="s">
         <v>25</v>
@@ -15262,7 +15284,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="383" spans="1:9" ht="300" hidden="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:9" ht="300" x14ac:dyDescent="0.25">
       <c r="A383" s="3" t="s">
         <v>7</v>
       </c>
@@ -15271,10 +15293,10 @@
         <v>Motion Asia Pacific Work Integrated Learning Scholarship in Engineering</v>
       </c>
       <c r="C383" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D383" s="12" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E383" t="s">
         <v>201</v>
@@ -15283,7 +15305,7 @@
         <v>13</v>
       </c>
       <c r="G383" s="12" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="H383" t="s">
         <v>25</v>
@@ -15292,7 +15314,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="384" spans="1:9" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A384" s="3" t="s">
         <v>7</v>
       </c>
@@ -15301,10 +15323,10 @@
         <v>Southern Districts Rugby Club Scholarship</v>
       </c>
       <c r="C384" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D384" s="12" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E384" t="s">
         <v>201</v>
@@ -15313,7 +15335,7 @@
         <v>35</v>
       </c>
       <c r="G384" s="12" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="H384" t="s">
         <v>25</v>
@@ -15322,7 +15344,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="385" spans="1:9" ht="300" hidden="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:9" ht="300" x14ac:dyDescent="0.25">
       <c r="A385" s="3" t="s">
         <v>7</v>
       </c>
@@ -15331,10 +15353,10 @@
         <v>Col Purcell Illawarra Rugby League Centenary Scholarship</v>
       </c>
       <c r="C385" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D385" s="12" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E385" t="s">
         <v>201</v>
@@ -15343,7 +15365,7 @@
         <v>13</v>
       </c>
       <c r="G385" s="12" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H385" t="s">
         <v>25</v>
@@ -15352,7 +15374,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="386" spans="1:9" ht="225" hidden="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:9" ht="225" x14ac:dyDescent="0.25">
       <c r="A386" s="3" t="s">
         <v>7</v>
       </c>
@@ -15361,20 +15383,20 @@
         <v>McLoughlin Minerva Scholarship for Sportswomen</v>
       </c>
       <c r="C386" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D386" s="12" t="s">
+        <v>383</v>
+      </c>
+      <c r="E386" t="s">
+        <v>338</v>
+      </c>
+      <c r="F386" t="s">
+        <v>13</v>
+      </c>
+      <c r="G386" s="12" t="s">
         <v>384</v>
       </c>
-      <c r="E386" t="s">
-        <v>339</v>
-      </c>
-      <c r="F386" t="s">
-        <v>13</v>
-      </c>
-      <c r="G386" s="12" t="s">
-        <v>385</v>
-      </c>
       <c r="H386" t="s">
         <v>25</v>
       </c>
@@ -15382,7 +15404,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="387" spans="1:9" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A387" s="13" t="s">
         <v>10</v>
       </c>
@@ -15403,7 +15425,7 @@
         <v>13</v>
       </c>
       <c r="G387" s="12" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H387" t="s">
         <v>25</v>
@@ -15412,7 +15434,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="388" spans="1:9" ht="225" hidden="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:9" ht="225" x14ac:dyDescent="0.25">
       <c r="A388" s="13" t="s">
         <v>10</v>
       </c>
@@ -15433,7 +15455,7 @@
         <v>13</v>
       </c>
       <c r="G388" s="12" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="H388" t="s">
         <v>25</v>
@@ -15442,7 +15464,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="389" spans="1:9" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A389" s="13" t="s">
         <v>10</v>
       </c>
@@ -15454,7 +15476,7 @@
         <v>27</v>
       </c>
       <c r="D389" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E389" t="s">
         <v>41</v>
@@ -15463,7 +15485,7 @@
         <v>51</v>
       </c>
       <c r="G389" s="12" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="H389" t="s">
         <v>25</v>
@@ -15472,7 +15494,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="390" spans="1:9" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A390" s="13" t="s">
         <v>10</v>
       </c>
@@ -15493,7 +15515,7 @@
         <v>35</v>
       </c>
       <c r="G390" s="12" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H390" t="s">
         <v>25</v>
@@ -15502,7 +15524,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="391" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A391" s="13" t="s">
         <v>10</v>
       </c>
@@ -15523,7 +15545,7 @@
         <v>197</v>
       </c>
       <c r="G391" s="12" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="H391" t="s">
         <v>25</v>
@@ -15532,7 +15554,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="392" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A392" s="13" t="s">
         <v>10</v>
       </c>
@@ -15553,7 +15575,7 @@
         <v>51</v>
       </c>
       <c r="G392" s="12" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="H392" t="s">
         <v>25</v>
@@ -15562,7 +15584,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="393" spans="1:9" ht="240" hidden="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:9" ht="240" x14ac:dyDescent="0.25">
       <c r="A393" s="13" t="s">
         <v>10</v>
       </c>
@@ -15583,7 +15605,7 @@
         <v>35</v>
       </c>
       <c r="G393" s="12" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="H393" t="s">
         <v>25</v>
@@ -15592,7 +15614,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="394" spans="1:9" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A394" s="13" t="s">
         <v>10</v>
       </c>
@@ -15613,7 +15635,7 @@
         <v>13</v>
       </c>
       <c r="G394" s="12" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="H394" t="s">
         <v>25</v>
@@ -15622,7 +15644,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="395" spans="1:9" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A395" s="13" t="s">
         <v>10</v>
       </c>
@@ -15643,7 +15665,7 @@
         <v>13</v>
       </c>
       <c r="G395" s="12" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H395" t="s">
         <v>25</v>
@@ -15652,7 +15674,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="396" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A396" s="13" t="s">
         <v>10</v>
       </c>
@@ -15673,7 +15695,7 @@
         <v>197</v>
       </c>
       <c r="G396" s="12" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H396" t="s">
         <v>25</v>
@@ -15682,7 +15704,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="397" spans="1:9" ht="330" hidden="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:9" ht="330" x14ac:dyDescent="0.25">
       <c r="A397" s="13" t="s">
         <v>10</v>
       </c>
@@ -15691,7 +15713,7 @@
         <v>UNSW Sport Scholarships Term 1, 2025</v>
       </c>
       <c r="C397" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D397" t="s">
         <v>209</v>
@@ -15703,7 +15725,7 @@
         <v>35</v>
       </c>
       <c r="G397" s="12" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H397" t="s">
         <v>25</v>
@@ -15712,7 +15734,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="398" spans="1:9" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A398" s="13" t="s">
         <v>10</v>
       </c>
@@ -15733,7 +15755,7 @@
         <v>35</v>
       </c>
       <c r="G398" s="12" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="H398" t="s">
         <v>25</v>
@@ -15742,7 +15764,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="399" spans="1:9" ht="360" hidden="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:9" ht="360" x14ac:dyDescent="0.25">
       <c r="A399" s="13" t="s">
         <v>10</v>
       </c>
@@ -15763,7 +15785,7 @@
         <v>13</v>
       </c>
       <c r="G399" s="12" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="H399" t="s">
         <v>25</v>
@@ -15772,7 +15794,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="400" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A400" s="13" t="s">
         <v>10</v>
       </c>
@@ -15793,7 +15815,7 @@
         <v>197</v>
       </c>
       <c r="G400" s="12" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H400" t="s">
         <v>25</v>
@@ -15802,7 +15824,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="401" spans="1:9" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A401" s="13" t="s">
         <v>10</v>
       </c>
@@ -15823,7 +15845,7 @@
         <v>13</v>
       </c>
       <c r="G401" s="12" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H401" t="s">
         <v>25</v>
@@ -15832,7 +15854,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="402" spans="1:9" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A402" s="13" t="s">
         <v>10</v>
       </c>
@@ -15853,7 +15875,7 @@
         <v>13</v>
       </c>
       <c r="G402" s="12" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H402" t="s">
         <v>25</v>
@@ -15862,7 +15884,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="403" spans="1:9" ht="405" hidden="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:9" ht="405" x14ac:dyDescent="0.25">
       <c r="A403" s="13" t="s">
         <v>10</v>
       </c>
@@ -15883,7 +15905,7 @@
         <v>13</v>
       </c>
       <c r="G403" s="12" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H403" t="s">
         <v>21</v>
@@ -15892,7 +15914,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="404" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A404" s="13" t="s">
         <v>10</v>
       </c>
@@ -15913,7 +15935,7 @@
         <v>197</v>
       </c>
       <c r="G404" s="12" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H404" t="s">
         <v>25</v>
@@ -15922,7 +15944,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="405" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A405" s="13" t="s">
         <v>10</v>
       </c>
@@ -15943,7 +15965,7 @@
         <v>197</v>
       </c>
       <c r="G405" s="12" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H405" t="s">
         <v>25</v>
@@ -15952,7 +15974,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="406" spans="1:9" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A406" s="13" t="s">
         <v>10</v>
       </c>
@@ -15973,7 +15995,7 @@
         <v>13</v>
       </c>
       <c r="G406" s="12" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="H406" t="s">
         <v>25</v>
@@ -15982,7 +16004,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="407" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A407" s="13" t="s">
         <v>10</v>
       </c>
@@ -16003,7 +16025,7 @@
         <v>197</v>
       </c>
       <c r="G407" s="12" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H407" t="s">
         <v>25</v>
@@ -16012,7 +16034,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="408" spans="1:9" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A408" s="13" t="s">
         <v>10</v>
       </c>
@@ -16033,7 +16055,7 @@
         <v>13</v>
       </c>
       <c r="G408" s="12" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="H408" t="s">
         <v>25</v>
@@ -16042,7 +16064,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="409" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A409" s="13" t="s">
         <v>10</v>
       </c>
@@ -16054,7 +16076,7 @@
         <v>27</v>
       </c>
       <c r="D409" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="E409" t="s">
         <v>41</v>
@@ -16063,7 +16085,7 @@
         <v>13</v>
       </c>
       <c r="G409" s="12" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="H409" t="s">
         <v>25</v>
@@ -16072,7 +16094,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="410" spans="1:9" ht="195" hidden="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:9" ht="195" x14ac:dyDescent="0.25">
       <c r="A410" s="13" t="s">
         <v>10</v>
       </c>
@@ -16093,7 +16115,7 @@
         <v>35</v>
       </c>
       <c r="G410" s="12" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="H410" t="s">
         <v>25</v>
@@ -16102,7 +16124,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="411" spans="1:9" ht="180" hidden="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:9" ht="180" x14ac:dyDescent="0.25">
       <c r="A411" s="13" t="s">
         <v>10</v>
       </c>
@@ -16123,7 +16145,7 @@
         <v>13</v>
       </c>
       <c r="G411" s="12" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="H411" t="s">
         <v>25</v>
@@ -16132,7 +16154,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="412" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A412" s="13" t="s">
         <v>10</v>
       </c>
@@ -16153,7 +16175,7 @@
         <v>51</v>
       </c>
       <c r="G412" s="12" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H412" t="s">
         <v>25</v>
@@ -16174,7 +16196,7 @@
         <v>14</v>
       </c>
       <c r="D413" s="7" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="E413" t="s">
         <v>201</v>
@@ -16183,7 +16205,7 @@
         <v>68</v>
       </c>
       <c r="G413" s="12" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="H413" t="s">
         <v>25</v>
@@ -16192,7 +16214,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="414" spans="1:9" ht="255" hidden="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:9" ht="255" x14ac:dyDescent="0.25">
       <c r="A414" s="13" t="s">
         <v>10</v>
       </c>
@@ -16204,7 +16226,7 @@
         <v>27</v>
       </c>
       <c r="D414" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="E414" t="s">
         <v>41</v>
@@ -16213,7 +16235,7 @@
         <v>51</v>
       </c>
       <c r="G414" s="12" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="H414" t="s">
         <v>25</v>
@@ -16222,7 +16244,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="415" spans="1:9" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A415" s="13" t="s">
         <v>10</v>
       </c>
@@ -16231,7 +16253,7 @@
         <v>UNSW Sydney Swans AFLW/ Academy Award (T1, 2024)</v>
       </c>
       <c r="C415" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D415" t="s">
         <v>202</v>
@@ -16243,7 +16265,7 @@
         <v>35</v>
       </c>
       <c r="G415" s="12" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="H415" t="s">
         <v>25</v>
@@ -16252,7 +16274,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="416" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A416" s="13" t="s">
         <v>10</v>
       </c>
@@ -16264,7 +16286,7 @@
         <v>27</v>
       </c>
       <c r="D416" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="E416" t="s">
         <v>331</v>
@@ -16273,7 +16295,7 @@
         <v>13</v>
       </c>
       <c r="G416" s="12" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="H416" t="s">
         <v>25</v>
@@ -16282,7 +16304,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="417" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A417" s="13" t="s">
         <v>10</v>
       </c>
@@ -16303,7 +16325,7 @@
         <v>137</v>
       </c>
       <c r="G417" s="12" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H417" t="s">
         <v>25</v>
@@ -16312,7 +16334,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="418" spans="1:9" ht="270" hidden="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:9" ht="270" x14ac:dyDescent="0.25">
       <c r="A418" s="13" t="s">
         <v>10</v>
       </c>
@@ -16333,7 +16355,7 @@
         <v>13</v>
       </c>
       <c r="G418" s="12" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="H418" t="s">
         <v>25</v>
@@ -16342,7 +16364,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="419" spans="1:9" ht="180" hidden="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:9" ht="180" x14ac:dyDescent="0.25">
       <c r="A419" s="13" t="s">
         <v>10</v>
       </c>
@@ -16363,7 +16385,7 @@
         <v>137</v>
       </c>
       <c r="G419" s="12" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H419" t="s">
         <v>25</v>
@@ -16372,7 +16394,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="420" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A420" s="13" t="s">
         <v>10</v>
       </c>
@@ -16393,7 +16415,7 @@
         <v>197</v>
       </c>
       <c r="G420" s="12" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H420" t="s">
         <v>25</v>
@@ -16402,7 +16424,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="421" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A421" s="13" t="s">
         <v>10</v>
       </c>
@@ -16423,7 +16445,7 @@
         <v>197</v>
       </c>
       <c r="G421" s="12" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H421" t="s">
         <v>25</v>
@@ -16432,7 +16454,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="422" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A422" s="13" t="s">
         <v>10</v>
       </c>
@@ -16453,7 +16475,7 @@
         <v>197</v>
       </c>
       <c r="G422" s="12" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H422" t="s">
         <v>25</v>
@@ -16474,17 +16496,17 @@
         <v>14</v>
       </c>
       <c r="D423" s="9" t="s">
+        <v>670</v>
+      </c>
+      <c r="E423" t="s">
+        <v>338</v>
+      </c>
+      <c r="F423" t="s">
+        <v>13</v>
+      </c>
+      <c r="G423" s="12" t="s">
         <v>671</v>
       </c>
-      <c r="E423" t="s">
-        <v>339</v>
-      </c>
-      <c r="F423" t="s">
-        <v>13</v>
-      </c>
-      <c r="G423" s="12" t="s">
-        <v>672</v>
-      </c>
       <c r="H423" t="s">
         <v>25</v>
       </c>
@@ -16492,7 +16514,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="424" spans="1:9" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A424" s="13" t="s">
         <v>10</v>
       </c>
@@ -16513,7 +16535,7 @@
         <v>35</v>
       </c>
       <c r="G424" s="12" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H424" t="s">
         <v>25</v>
@@ -16522,7 +16544,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="425" spans="1:9" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A425" s="13" t="s">
         <v>10</v>
       </c>
@@ -16534,7 +16556,7 @@
         <v>27</v>
       </c>
       <c r="D425" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="E425" t="s">
         <v>201</v>
@@ -16543,7 +16565,7 @@
         <v>13</v>
       </c>
       <c r="G425" s="12" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="H425" t="s">
         <v>21</v>
@@ -16552,7 +16574,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="426" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A426" s="13" t="s">
         <v>10</v>
       </c>
@@ -16573,7 +16595,7 @@
         <v>197</v>
       </c>
       <c r="G426" s="12" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H426" t="s">
         <v>25</v>
@@ -16582,7 +16604,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="427" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A427" s="13" t="s">
         <v>10</v>
       </c>
@@ -16594,16 +16616,16 @@
         <v>27</v>
       </c>
       <c r="D427" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="E427" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F427" t="s">
         <v>197</v>
       </c>
       <c r="G427" s="12" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H427" t="s">
         <v>25</v>
@@ -16612,7 +16634,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="428" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A428" s="13" t="s">
         <v>10</v>
       </c>
@@ -16633,7 +16655,7 @@
         <v>197</v>
       </c>
       <c r="G428" s="12" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H428" t="s">
         <v>25</v>
@@ -16642,7 +16664,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="429" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A429" s="13" t="s">
         <v>10</v>
       </c>
@@ -16663,7 +16685,7 @@
         <v>51</v>
       </c>
       <c r="G429" s="12" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="H429" t="s">
         <v>25</v>
@@ -16672,7 +16694,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="430" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A430" s="13" t="s">
         <v>10</v>
       </c>
@@ -16693,7 +16715,7 @@
         <v>13</v>
       </c>
       <c r="G430" s="12" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="H430" t="s">
         <v>25</v>
@@ -16702,7 +16724,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="431" spans="1:9" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A431" s="13" t="s">
         <v>10</v>
       </c>
@@ -16723,7 +16745,7 @@
         <v>197</v>
       </c>
       <c r="G431" s="12" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H431" t="s">
         <v>25</v>
@@ -16732,7 +16754,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="432" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A432" s="13" t="s">
         <v>10</v>
       </c>
@@ -16744,7 +16766,7 @@
         <v>27</v>
       </c>
       <c r="D432" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="E432" t="s">
         <v>201</v>
@@ -16753,7 +16775,7 @@
         <v>13</v>
       </c>
       <c r="G432" s="12" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="H432" t="s">
         <v>25</v>
@@ -16762,7 +16784,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="433" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A433" s="13" t="s">
         <v>10</v>
       </c>
@@ -16783,7 +16805,7 @@
         <v>13</v>
       </c>
       <c r="G433" s="12" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="H433" t="s">
         <v>25</v>
@@ -16792,7 +16814,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="434" spans="1:9" ht="345" hidden="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:9" ht="345" x14ac:dyDescent="0.25">
       <c r="A434" s="13" t="s">
         <v>10</v>
       </c>
@@ -16813,7 +16835,7 @@
         <v>13</v>
       </c>
       <c r="G434" s="12" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="H434" t="s">
         <v>25</v>
@@ -16822,7 +16844,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="435" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A435" s="13" t="s">
         <v>10</v>
       </c>
@@ -16843,7 +16865,7 @@
         <v>197</v>
       </c>
       <c r="G435" s="12" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H435" t="s">
         <v>25</v>
@@ -16852,7 +16874,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="436" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A436" s="13" t="s">
         <v>10</v>
       </c>
@@ -16873,7 +16895,7 @@
         <v>197</v>
       </c>
       <c r="G436" s="12" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H436" t="s">
         <v>25</v>
@@ -16882,7 +16904,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="437" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A437" s="13" t="s">
         <v>10</v>
       </c>
@@ -16903,7 +16925,7 @@
         <v>13</v>
       </c>
       <c r="G437" s="12" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="H437" t="s">
         <v>25</v>
@@ -16912,7 +16934,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="438" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A438" s="13" t="s">
         <v>10</v>
       </c>
@@ -16924,7 +16946,7 @@
         <v>27</v>
       </c>
       <c r="D438" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="E438" t="s">
         <v>41</v>
@@ -16933,7 +16955,7 @@
         <v>197</v>
       </c>
       <c r="G438" s="12" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H438" t="s">
         <v>25</v>
@@ -16942,7 +16964,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="439" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A439" s="13" t="s">
         <v>10</v>
       </c>
@@ -16963,7 +16985,7 @@
         <v>13</v>
       </c>
       <c r="G439" s="12" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="H439" t="s">
         <v>25</v>
@@ -16972,7 +16994,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="440" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A440" s="13" t="s">
         <v>10</v>
       </c>
@@ -16993,7 +17015,7 @@
         <v>13</v>
       </c>
       <c r="G440" s="12" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="H440" t="s">
         <v>25</v>
@@ -17002,7 +17024,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="441" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A441" s="13" t="s">
         <v>10</v>
       </c>
@@ -17023,7 +17045,7 @@
         <v>197</v>
       </c>
       <c r="G441" s="12" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H441" t="s">
         <v>25</v>
@@ -17032,7 +17054,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="442" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A442" s="13" t="s">
         <v>10</v>
       </c>
@@ -17053,7 +17075,7 @@
         <v>13</v>
       </c>
       <c r="G442" s="12" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="H442" t="s">
         <v>25</v>
@@ -17062,7 +17084,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="443" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A443" s="13" t="s">
         <v>10</v>
       </c>
@@ -17083,7 +17105,7 @@
         <v>197</v>
       </c>
       <c r="G443" s="12" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H443" t="s">
         <v>25</v>
@@ -17092,7 +17114,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="444" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A444" s="13" t="s">
         <v>10</v>
       </c>
@@ -17113,7 +17135,7 @@
         <v>13</v>
       </c>
       <c r="G444" s="12" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="H444" t="s">
         <v>25</v>
@@ -17122,7 +17144,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="445" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A445" s="13" t="s">
         <v>10</v>
       </c>
@@ -17143,7 +17165,7 @@
         <v>197</v>
       </c>
       <c r="G445" s="12" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H445" t="s">
         <v>25</v>
@@ -17152,7 +17174,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="446" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A446" s="13" t="s">
         <v>10</v>
       </c>
@@ -17173,7 +17195,7 @@
         <v>197</v>
       </c>
       <c r="G446" s="12" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H446" t="s">
         <v>25</v>
@@ -17182,7 +17204,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="447" spans="1:9" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A447" s="13" t="s">
         <v>10</v>
       </c>
@@ -17203,7 +17225,7 @@
         <v>13</v>
       </c>
       <c r="G447" s="12" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="H447" t="s">
         <v>25</v>
@@ -17212,7 +17234,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="448" spans="1:9" ht="375" hidden="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:9" ht="375" x14ac:dyDescent="0.25">
       <c r="A448" s="13" t="s">
         <v>10</v>
       </c>
@@ -17233,7 +17255,7 @@
         <v>13</v>
       </c>
       <c r="G448" s="12" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H448" t="s">
         <v>25</v>
@@ -17242,7 +17264,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="449" spans="1:9" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A449" s="13" t="s">
         <v>10</v>
       </c>
@@ -17263,7 +17285,7 @@
         <v>137</v>
       </c>
       <c r="G449" s="12" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H449" t="s">
         <v>25</v>
@@ -17272,7 +17294,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="450" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A450" s="13" t="s">
         <v>10</v>
       </c>
@@ -17293,7 +17315,7 @@
         <v>197</v>
       </c>
       <c r="G450" s="12" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H450" t="s">
         <v>25</v>
@@ -17302,7 +17324,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="451" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A451" s="13" t="s">
         <v>10</v>
       </c>
@@ -17323,7 +17345,7 @@
         <v>13</v>
       </c>
       <c r="G451" s="12" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="H451" t="s">
         <v>25</v>
@@ -17332,7 +17354,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="452" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A452" s="13" t="s">
         <v>10</v>
       </c>
@@ -17353,7 +17375,7 @@
         <v>137</v>
       </c>
       <c r="G452" s="12" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="H452" t="s">
         <v>25</v>
@@ -17362,7 +17384,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="453" spans="1:9" ht="255" hidden="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:9" ht="255" x14ac:dyDescent="0.25">
       <c r="A453" s="13" t="s">
         <v>10</v>
       </c>
@@ -17383,7 +17405,7 @@
         <v>137</v>
       </c>
       <c r="G453" s="12" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="H453" t="s">
         <v>25</v>
@@ -17392,7 +17414,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="454" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A454" s="13" t="s">
         <v>10</v>
       </c>
@@ -17413,7 +17435,7 @@
         <v>51</v>
       </c>
       <c r="G454" s="12" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="H454" t="s">
         <v>25</v>
@@ -17422,7 +17444,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="455" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A455" s="13" t="s">
         <v>10</v>
       </c>
@@ -17443,7 +17465,7 @@
         <v>197</v>
       </c>
       <c r="G455" s="12" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H455" t="s">
         <v>25</v>
@@ -17452,7 +17474,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="456" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A456" s="13" t="s">
         <v>10</v>
       </c>
@@ -17473,7 +17495,7 @@
         <v>197</v>
       </c>
       <c r="G456" s="12" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H456" t="s">
         <v>25</v>
@@ -17482,7 +17504,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="457" spans="1:9" ht="195" hidden="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:9" ht="195" x14ac:dyDescent="0.25">
       <c r="A457" s="13" t="s">
         <v>10</v>
       </c>
@@ -17503,7 +17525,7 @@
         <v>35</v>
       </c>
       <c r="G457" s="12" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="H457" t="s">
         <v>25</v>
@@ -17512,7 +17534,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="458" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A458" s="13" t="s">
         <v>10</v>
       </c>
@@ -17533,7 +17555,7 @@
         <v>197</v>
       </c>
       <c r="G458" s="12" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H458" t="s">
         <v>25</v>
@@ -17542,7 +17564,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="459" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A459" s="4" t="s">
         <v>8</v>
       </c>
@@ -17572,7 +17594,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="460" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A460" s="4" t="s">
         <v>8</v>
       </c>
@@ -17602,7 +17624,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="461" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A461" s="4" t="s">
         <v>8</v>
       </c>
@@ -17632,7 +17654,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="462" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A462" s="4" t="s">
         <v>8</v>
       </c>
@@ -17662,7 +17684,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="463" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A463" s="4" t="s">
         <v>8</v>
       </c>
@@ -17692,7 +17714,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="464" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A464" s="4" t="s">
         <v>8</v>
       </c>
@@ -17722,7 +17744,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="465" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A465" s="4" t="s">
         <v>8</v>
       </c>
@@ -17752,7 +17774,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="466" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A466" s="4" t="s">
         <v>8</v>
       </c>
@@ -17782,7 +17804,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="467" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A467" s="4" t="s">
         <v>8</v>
       </c>
@@ -17812,7 +17834,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="468" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A468" s="4" t="s">
         <v>8</v>
       </c>
@@ -17842,7 +17864,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="469" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A469" s="4" t="s">
         <v>8</v>
       </c>
@@ -17872,7 +17894,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="470" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A470" s="4" t="s">
         <v>8</v>
       </c>
@@ -17902,7 +17924,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="471" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A471" s="4" t="s">
         <v>8</v>
       </c>
@@ -17932,7 +17954,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="472" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A472" s="4" t="s">
         <v>8</v>
       </c>
@@ -17962,7 +17984,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="473" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A473" s="4" t="s">
         <v>8</v>
       </c>
@@ -17992,7 +18014,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="474" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A474" s="4" t="s">
         <v>8</v>
       </c>
@@ -18022,7 +18044,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="475" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A475" s="4" t="s">
         <v>8</v>
       </c>
@@ -18052,7 +18074,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="476" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A476" s="4" t="s">
         <v>8</v>
       </c>
@@ -18082,7 +18104,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="477" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A477" s="4" t="s">
         <v>8</v>
       </c>
@@ -18112,7 +18134,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="478" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A478" s="4" t="s">
         <v>8</v>
       </c>
@@ -18142,7 +18164,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="479" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A479" s="4" t="s">
         <v>8</v>
       </c>
@@ -18172,7 +18194,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="480" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A480" s="4" t="s">
         <v>8</v>
       </c>
@@ -18202,7 +18224,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="481" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A481" s="4" t="s">
         <v>8</v>
       </c>
@@ -18232,7 +18254,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="482" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A482" s="4" t="s">
         <v>8</v>
       </c>
@@ -18262,7 +18284,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="483" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A483" s="4" t="s">
         <v>8</v>
       </c>
@@ -18292,7 +18314,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="484" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A484" s="4" t="s">
         <v>8</v>
       </c>
@@ -18322,7 +18344,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="485" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A485" s="4" t="s">
         <v>8</v>
       </c>
@@ -18352,7 +18374,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="486" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A486" s="4" t="s">
         <v>8</v>
       </c>
@@ -18382,7 +18404,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="487" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A487" s="4" t="s">
         <v>8</v>
       </c>
@@ -18412,7 +18434,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="488" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A488" s="4" t="s">
         <v>8</v>
       </c>
@@ -18442,7 +18464,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="489" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A489" s="4" t="s">
         <v>8</v>
       </c>
@@ -18472,7 +18494,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="490" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A490" s="4" t="s">
         <v>8</v>
       </c>
@@ -18502,7 +18524,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="491" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A491" s="4" t="s">
         <v>8</v>
       </c>
@@ -18532,7 +18554,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="492" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A492" s="4" t="s">
         <v>8</v>
       </c>
@@ -18562,7 +18584,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="493" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A493" s="4" t="s">
         <v>8</v>
       </c>
@@ -18592,7 +18614,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="494" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A494" s="4" t="s">
         <v>8</v>
       </c>
@@ -18622,7 +18644,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="495" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A495" s="4" t="s">
         <v>8</v>
       </c>
@@ -18652,7 +18674,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="496" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A496" s="4" t="s">
         <v>8</v>
       </c>
@@ -18682,7 +18704,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="497" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A497" s="4" t="s">
         <v>8</v>
       </c>
@@ -18712,7 +18734,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="498" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A498" s="4" t="s">
         <v>8</v>
       </c>
@@ -18742,7 +18764,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="499" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A499" s="4" t="s">
         <v>8</v>
       </c>
@@ -18772,7 +18794,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="500" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A500" s="4" t="s">
         <v>8</v>
       </c>
@@ -18802,7 +18824,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="501" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A501" s="4" t="s">
         <v>8</v>
       </c>
@@ -18832,7 +18854,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="502" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A502" s="4" t="s">
         <v>8</v>
       </c>
@@ -18862,7 +18884,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="503" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A503" s="4" t="s">
         <v>8</v>
       </c>
@@ -18892,7 +18914,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="504" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A504" s="4" t="s">
         <v>8</v>
       </c>
@@ -18922,7 +18944,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="505" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A505" s="4" t="s">
         <v>8</v>
       </c>
@@ -18952,7 +18974,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="506" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A506" s="4" t="s">
         <v>8</v>
       </c>
@@ -18982,7 +19004,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="507" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A507" s="4" t="s">
         <v>8</v>
       </c>
@@ -19012,7 +19034,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="508" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A508" s="4" t="s">
         <v>8</v>
       </c>
@@ -19042,7 +19064,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="509" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A509" s="4" t="s">
         <v>8</v>
       </c>
@@ -19072,7 +19094,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="510" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A510" s="4" t="s">
         <v>8</v>
       </c>
@@ -19102,7 +19124,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="511" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A511" s="4" t="s">
         <v>8</v>
       </c>
@@ -19132,7 +19154,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="512" spans="1:9" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A512" s="4" t="s">
         <v>8</v>
       </c>
@@ -19162,7 +19184,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="513" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A513" s="4" t="s">
         <v>8</v>
       </c>
@@ -19192,7 +19214,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="514" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A514" s="4" t="s">
         <v>8</v>
       </c>
@@ -19222,7 +19244,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="515" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A515" s="4" t="s">
         <v>8</v>
       </c>
@@ -19252,7 +19274,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="516" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A516" s="4" t="s">
         <v>8</v>
       </c>
@@ -19282,7 +19304,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="517" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A517" s="4" t="s">
         <v>8</v>
       </c>
@@ -19312,7 +19334,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="518" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A518" s="4" t="s">
         <v>8</v>
       </c>
@@ -19342,7 +19364,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="519" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A519" s="4" t="s">
         <v>8</v>
       </c>
@@ -19372,7 +19394,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="520" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A520" s="4" t="s">
         <v>8</v>
       </c>
@@ -19402,7 +19424,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="521" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A521" s="4" t="s">
         <v>8</v>
       </c>
@@ -19432,7 +19454,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="522" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A522" s="4" t="s">
         <v>8</v>
       </c>
@@ -19462,7 +19484,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="523" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A523" s="4" t="s">
         <v>8</v>
       </c>
@@ -19492,7 +19514,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="524" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A524" s="4" t="s">
         <v>8</v>
       </c>
@@ -19522,7 +19544,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="525" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A525" s="4" t="s">
         <v>8</v>
       </c>
@@ -19552,7 +19574,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="526" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A526" s="4" t="s">
         <v>8</v>
       </c>
@@ -19582,7 +19604,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="527" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A527" s="4" t="s">
         <v>8</v>
       </c>
@@ -19612,7 +19634,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="528" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A528" s="4" t="s">
         <v>8</v>
       </c>
@@ -19642,7 +19664,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="529" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A529" s="4" t="s">
         <v>8</v>
       </c>
@@ -19672,7 +19694,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="530" spans="1:9" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A530" s="4" t="s">
         <v>8</v>
       </c>
@@ -19702,7 +19724,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="531" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A531" s="4" t="s">
         <v>8</v>
       </c>
@@ -19734,11 +19756,6 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:I531" xr:uid="{5773BD61-A8F4-4ACA-BB03-11DEBD312DAE}">
-    <filterColumn colId="4">
-      <filters>
-        <filter val="na"/>
-      </filters>
-    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I531">
       <sortCondition ref="A1:A531"/>
     </sortState>

--- a/Scholarships Research.xlsx
+++ b/Scholarships Research.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{BC4AE9FA-0CB4-4CF0-8D39-57A9F105CFA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{712ABEEC-36FC-47A3-BE68-20EE75D1D2EC}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1CF3EDB6-384E-4233-A2F8-DD99A8F9DE7B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1CF3EDB6-384E-4233-A2F8-DD99A8F9DE7B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19766,6 +19766,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="91d47d42-378c-4240-adf1-50612b639f36" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="514dc54e-a510-4ebc-96a4-7a373c84d576">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A1B59F058DD61F4CBF5D961017DC0A45" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3843482ad259dd7cf47d53181de3a479">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="514dc54e-a510-4ebc-96a4-7a373c84d576" xmlns:ns3="91d47d42-378c-4240-adf1-50612b639f36" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c2a99e4d2b0f67119e90f9a433f5d6db" ns2:_="" ns3:_="">
     <xsd:import namespace="514dc54e-a510-4ebc-96a4-7a373c84d576"/>
@@ -20014,27 +20034,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{931EF037-3A45-438F-8EFF-A0227E591D57}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="91d47d42-378c-4240-adf1-50612b639f36"/>
+    <ds:schemaRef ds:uri="514dc54e-a510-4ebc-96a4-7a373c84d576"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="91d47d42-378c-4240-adf1-50612b639f36" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="514dc54e-a510-4ebc-96a4-7a373c84d576">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2939E453-00EA-486F-995B-7D4644B61C8A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{873E4114-4F26-4870-B334-33A2DDABEBD5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -20051,23 +20070,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2939E453-00EA-486F-995B-7D4644B61C8A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{931EF037-3A45-438F-8EFF-A0227E591D57}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="91d47d42-378c-4240-adf1-50612b639f36"/>
-    <ds:schemaRef ds:uri="514dc54e-a510-4ebc-96a4-7a373c84d576"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Scholarships Research.xlsx
+++ b/Scholarships Research.xlsx
@@ -19766,26 +19766,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="91d47d42-378c-4240-adf1-50612b639f36" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="514dc54e-a510-4ebc-96a4-7a373c84d576">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A1B59F058DD61F4CBF5D961017DC0A45" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3843482ad259dd7cf47d53181de3a479">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="514dc54e-a510-4ebc-96a4-7a373c84d576" xmlns:ns3="91d47d42-378c-4240-adf1-50612b639f36" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c2a99e4d2b0f67119e90f9a433f5d6db" ns2:_="" ns3:_="">
     <xsd:import namespace="514dc54e-a510-4ebc-96a4-7a373c84d576"/>
@@ -20034,26 +20014,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{931EF037-3A45-438F-8EFF-A0227E591D57}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="91d47d42-378c-4240-adf1-50612b639f36"/>
-    <ds:schemaRef ds:uri="514dc54e-a510-4ebc-96a4-7a373c84d576"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2939E453-00EA-486F-995B-7D4644B61C8A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="91d47d42-378c-4240-adf1-50612b639f36" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="514dc54e-a510-4ebc-96a4-7a373c84d576">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{873E4114-4F26-4870-B334-33A2DDABEBD5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -20070,4 +20051,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2939E453-00EA-486F-995B-7D4644B61C8A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{931EF037-3A45-438F-8EFF-A0227E591D57}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="91d47d42-378c-4240-adf1-50612b639f36"/>
+    <ds:schemaRef ds:uri="514dc54e-a510-4ebc-96a4-7a373c84d576"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Scholarships Research.xlsx
+++ b/Scholarships Research.xlsx
@@ -3803,7 +3803,7 @@
   <dimension ref="A1:I531"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B336" sqref="B336"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19766,6 +19766,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="91d47d42-378c-4240-adf1-50612b639f36" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="514dc54e-a510-4ebc-96a4-7a373c84d576">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A1B59F058DD61F4CBF5D961017DC0A45" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3843482ad259dd7cf47d53181de3a479">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="514dc54e-a510-4ebc-96a4-7a373c84d576" xmlns:ns3="91d47d42-378c-4240-adf1-50612b639f36" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c2a99e4d2b0f67119e90f9a433f5d6db" ns2:_="" ns3:_="">
     <xsd:import namespace="514dc54e-a510-4ebc-96a4-7a373c84d576"/>
@@ -20014,27 +20034,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{931EF037-3A45-438F-8EFF-A0227E591D57}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="91d47d42-378c-4240-adf1-50612b639f36"/>
+    <ds:schemaRef ds:uri="514dc54e-a510-4ebc-96a4-7a373c84d576"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="91d47d42-378c-4240-adf1-50612b639f36" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="514dc54e-a510-4ebc-96a4-7a373c84d576">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2939E453-00EA-486F-995B-7D4644B61C8A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{873E4114-4F26-4870-B334-33A2DDABEBD5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -20051,23 +20070,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2939E453-00EA-486F-995B-7D4644B61C8A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{931EF037-3A45-438F-8EFF-A0227E591D57}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="91d47d42-378c-4240-adf1-50612b639f36"/>
-    <ds:schemaRef ds:uri="514dc54e-a510-4ebc-96a4-7a373c84d576"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Scholarships Research.xlsx
+++ b/Scholarships Research.xlsx
@@ -18967,6 +18967,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="91d47d42-378c-4240-adf1-50612b639f36" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="514dc54e-a510-4ebc-96a4-7a373c84d576">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A1B59F058DD61F4CBF5D961017DC0A45" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3843482ad259dd7cf47d53181de3a479">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="514dc54e-a510-4ebc-96a4-7a373c84d576" xmlns:ns3="91d47d42-378c-4240-adf1-50612b639f36" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c2a99e4d2b0f67119e90f9a433f5d6db" ns2:_="" ns3:_="">
     <xsd:import namespace="514dc54e-a510-4ebc-96a4-7a373c84d576"/>
@@ -19215,27 +19235,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{931EF037-3A45-438F-8EFF-A0227E591D57}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="91d47d42-378c-4240-adf1-50612b639f36"/>
+    <ds:schemaRef ds:uri="514dc54e-a510-4ebc-96a4-7a373c84d576"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="91d47d42-378c-4240-adf1-50612b639f36" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="514dc54e-a510-4ebc-96a4-7a373c84d576">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2939E453-00EA-486F-995B-7D4644B61C8A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{873E4114-4F26-4870-B334-33A2DDABEBD5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -19252,23 +19271,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2939E453-00EA-486F-995B-7D4644B61C8A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{931EF037-3A45-438F-8EFF-A0227E591D57}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="91d47d42-378c-4240-adf1-50612b639f36"/>
-    <ds:schemaRef ds:uri="514dc54e-a510-4ebc-96a4-7a373c84d576"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Scholarships Research.xlsx
+++ b/Scholarships Research.xlsx
@@ -3513,7 +3513,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5773BD61-A8F4-4ACA-BB03-11DEBD312DAE}">
   <dimension ref="A1:I514"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A280" workbookViewId="0">
       <selection activeCell="C387" sqref="C387"/>
     </sheetView>
   </sheetViews>
@@ -18967,26 +18967,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="91d47d42-378c-4240-adf1-50612b639f36" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="514dc54e-a510-4ebc-96a4-7a373c84d576">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A1B59F058DD61F4CBF5D961017DC0A45" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3843482ad259dd7cf47d53181de3a479">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="514dc54e-a510-4ebc-96a4-7a373c84d576" xmlns:ns3="91d47d42-378c-4240-adf1-50612b639f36" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c2a99e4d2b0f67119e90f9a433f5d6db" ns2:_="" ns3:_="">
     <xsd:import namespace="514dc54e-a510-4ebc-96a4-7a373c84d576"/>
@@ -19235,26 +19215,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{931EF037-3A45-438F-8EFF-A0227E591D57}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="91d47d42-378c-4240-adf1-50612b639f36"/>
-    <ds:schemaRef ds:uri="514dc54e-a510-4ebc-96a4-7a373c84d576"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2939E453-00EA-486F-995B-7D4644B61C8A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="91d47d42-378c-4240-adf1-50612b639f36" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="514dc54e-a510-4ebc-96a4-7a373c84d576">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{873E4114-4F26-4870-B334-33A2DDABEBD5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -19271,4 +19252,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2939E453-00EA-486F-995B-7D4644B61C8A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{931EF037-3A45-438F-8EFF-A0227E591D57}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="91d47d42-378c-4240-adf1-50612b639f36"/>
+    <ds:schemaRef ds:uri="514dc54e-a510-4ebc-96a4-7a373c84d576"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Scholarships Research.xlsx
+++ b/Scholarships Research.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="327" documentId="13_ncr:1_{BC4AE9FA-0CB4-4CF0-8D39-57A9F105CFA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F6ACF66A-E258-4133-9385-0065CDCF93BA}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1CF3EDB6-384E-4233-A2F8-DD99A8F9DE7B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1CF3EDB6-384E-4233-A2F8-DD99A8F9DE7B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3513,7 +3513,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5773BD61-A8F4-4ACA-BB03-11DEBD312DAE}">
   <dimension ref="A1:I514"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A280" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C387" sqref="C387"/>
     </sheetView>
   </sheetViews>

--- a/Scholarships Research.xlsx
+++ b/Scholarships Research.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="327" documentId="13_ncr:1_{BC4AE9FA-0CB4-4CF0-8D39-57A9F105CFA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F6ACF66A-E258-4133-9385-0065CDCF93BA}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1CF3EDB6-384E-4233-A2F8-DD99A8F9DE7B}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1CF3EDB6-384E-4233-A2F8-DD99A8F9DE7B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3513,7 +3513,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5773BD61-A8F4-4ACA-BB03-11DEBD312DAE}">
   <dimension ref="A1:I514"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
       <selection activeCell="C387" sqref="C387"/>
     </sheetView>
   </sheetViews>
@@ -18967,6 +18967,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="91d47d42-378c-4240-adf1-50612b639f36" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="514dc54e-a510-4ebc-96a4-7a373c84d576">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A1B59F058DD61F4CBF5D961017DC0A45" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3843482ad259dd7cf47d53181de3a479">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="514dc54e-a510-4ebc-96a4-7a373c84d576" xmlns:ns3="91d47d42-378c-4240-adf1-50612b639f36" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c2a99e4d2b0f67119e90f9a433f5d6db" ns2:_="" ns3:_="">
     <xsd:import namespace="514dc54e-a510-4ebc-96a4-7a373c84d576"/>
@@ -19215,27 +19235,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{931EF037-3A45-438F-8EFF-A0227E591D57}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="91d47d42-378c-4240-adf1-50612b639f36"/>
+    <ds:schemaRef ds:uri="514dc54e-a510-4ebc-96a4-7a373c84d576"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="91d47d42-378c-4240-adf1-50612b639f36" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="514dc54e-a510-4ebc-96a4-7a373c84d576">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2939E453-00EA-486F-995B-7D4644B61C8A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{873E4114-4F26-4870-B334-33A2DDABEBD5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -19252,23 +19271,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2939E453-00EA-486F-995B-7D4644B61C8A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{931EF037-3A45-438F-8EFF-A0227E591D57}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="91d47d42-378c-4240-adf1-50612b639f36"/>
-    <ds:schemaRef ds:uri="514dc54e-a510-4ebc-96a4-7a373c84d576"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>